--- a/res/Experiment-81.czi.xlsx
+++ b/res/Experiment-81.czi.xlsx
@@ -3724,17 +3724,17 @@
       </c>
       <c r="API1" t="inlineStr">
         <is>
-          <t>[87.15241228070175, 87.6014254385965, 86.53782894736842, 86.9594298245614, 87.76589912280701, 88.7234100877193, 88.82127192982456, 89.76726973684211, 89.76589912280701, 89.04084429824562, 90.23163377192982, 89.20997807017544, 88.78042763157895, 88.80345394736842, 88.57236842105263, 89.01398026315789, 88.95038377192982, 86.65186403508773, 87.6811951754386, 87.06606359649123, 80.14309210526316, 80.89747807017544, 80.03481359649123, 80.66008771929825, 80.6170504385965, 81.17077850877193, 82.10252192982456, 84.59786184210526, 82.85416666666667, 84.66611842105263, 83.96765350877193, 83.62280701754386, 82.68914473684211, 84.15652412280701, 82.93064692982456, 82.86019736842105, 84.19627192982456, 84.13843201754386, 82.88349780701755, 84.29303728070175, 84.04385964912281, 81.60444078947368, 84.25438596491227, 83.30400219298245, 83.96518640350877, 84.63541666666667, 84.8826754385965, 83.29385964912281, 82.48629385964912, 83.21491228070175, 83.06112938596492, 83.53481359649123, 84.59813596491227, 83.80427631578948, 84.11293859649123, 85.25191885964912, 84.89446271929825, 86.39747807017544, 85.04577850877193, 85.14254385964912, 85.64364035087719, 84.39336622807018, 84.10115131578948, 86.31990131578948, 86.15981359649123, 85.57401315789474, 85.50164473684211, 86.05290570175438, 87.06085526315789, 85.62198464912281, 86.16885964912281, 86.31551535087719, 86.05509868421052, 84.41337719298245, 85.48026315789474, 85.44462719298245, 84.92351973684211, 86.73876096491227, 86.56990131578948, 85.66940789473684, 87.0814144736842, 86.93667763157895, 85.79714912280701, 86.00740131578948, 87.33552631578948, 85.84457236842105, 85.5545504385965, 86.01206140350877, 86.30427631578948, 83.77960526315789, 86.3640350877193, 86.48930921052632, 85.3078399122807, 85.11129385964912, 85.30729166666667, 86.3656798245614, 84.44462719298245, 86.9141995614035, 85.00054824561404, 85.7467105263158, 84.53700657894737, 86.02604166666667, 86.50986842105263, 85.53810307017544, 85.9125548245614, 85.22861842105263, 85.51370614035088, 86.11211622807018, 86.2220394736842, 85.3001644736842, 85.94901315789474, 85.2891995614035, 84.9468201754386, 84.44928728070175, 86.26699561403508, 86.9095394736842, 86.48656798245614, 85.80043859649123, 85.52275219298245, 86.78865131578948, 86.04660087719299, 85.92598684210526, 87.66968201754386, 89.1515899122807, 88.2922149122807, 85.96052631578948, 86.89007675438596, 87.60800438596492, 87.70120614035088, 88.42242324561404, 87.33470394736842, 88.48053728070175, 87.60279605263158, 86.13157894736842, 87.51617324561404, 87.81935307017544, 86.24972587719299, 85.20148026315789, 85.36787280701755, 86.13185307017544, 86.09621710526316, 86.30509868421052, 87.1156798245614, 85.71271929824562, 84.8656798245614, 85.94325657894737, 85.53865131578948, 84.9109100877193, 86.10279605263158, 85.43832236842105, 86.34402412280701, 84.9797149122807, 85.74616228070175, 87.0046600877193, 87.23739035087719, 86.64884868421052, 87.40405701754386, 85.90049342105263, 84.86513157894737, 86.05400219298245, 87.01425438596492, 86.96573464912281, 85.85444078947368, 84.32127192982456, 85.02713815789474, 87.20559210526316, 85.27960526315789, 85.74890350877193, 86.3969298245614, 85.80701754385964, 86.09210526315789, 85.43503289473684, 85.74643640350877, 84.85389254385964, 84.90625, 86.2297149122807, 85.73327850877193, 86.73656798245614, 87.29385964912281, 85.18969298245614, 86.28481359649123, 85.6282894736842, 86.5405701754386, 86.12993421052632, 86.31359649122807, 87.14309210526316, 86.32236842105263, 87.43092105263158, 85.81085526315789, 85.99177631578948, 85.35964912280701, 85.92735745614036, 83.97889254385964, 84.62801535087719, 84.48876096491227, 85.69051535087719, 85.40816885964912, 85.54577850877193, 85.66995614035088, 85.3826754385965, 86.32675438596492, 84.60690789473684, 86.47478070175438, 86.3484100877193, 85.7935855263158, 85.36293859649123, 86.92763157894737, 85.38212719298245, 85.90707236842105, 86.00520833333333, 84.3826754385965, 85.94873903508773, 86.3061951754386, 86.51699561403508, 86.58662280701755, 86.98876096491227, 87.53234649122807, 87.53179824561404, 85.7234100877193, 87.17214912280701, 86.34923245614036, 85.67708333333333, 87.70257675438596, 86.53782894736842, 86.99122807017544, 87.20504385964912, 84.17790570175438, 85.47697368421052, 85.56743421052632, 85.04906798245614, 85.05893640350877, 85.40021929824562, 86.00822368421052, 85.09950657894737, 83.52850877192982, 85.78426535087719, 84.82757675438596, 86.20997807017544, 85.22916666666667, 83.97423245614036, 82.67461622807018, 83.07154605263158, 84.46957236842105, 83.9185855263158, 82.74177631578948, 83.29331140350877, 84.1968201754386, 83.38678728070175, 83.82319078947368, 85.43667763157895, 84.79440789473684, 82.95970394736842, 83.00849780701755, 83.98876096491227, 83.4810855263158, 83.19709429824562, 84.69572368421052, 84.10224780701755, 83.09621710526316, 84.00301535087719, 83.67735745614036, 83.41008771929825, 84.86951754385964, 84.33881578947368, 83.6000548245614, 85.15789473684211, 84.87911184210526, 83.50986842105263, 83.47998903508773, 83.5032894736842, 83.1014254385965, 84.07291666666667, 84.29303728070175, 84.4890350877193, 83.07593201754386, 83.87883771929825, 83.11348684210526, 82.78042763157895, 83.19709429824562, 81.80811403508773, 82.89446271929825, 81.96217105263158, 83.25219298245614, 84.11513157894737, 85.04851973684211, 83.84484649122807, 83.47368421052632, 84.09731359649123, 83.4155701754386, 83.08689692982456, 84.03673245614036, 82.40076754385964, 82.67543859649123, 81.71737938596492, 81.60197368421052, 82.30290570175438, 83.30208333333333, 82.6842105263158, 82.87390350877193, 83.23464912280701, 83.73958333333333, 82.45723684210526, 83.70422149122807, 81.8717105263158, 84.70339912280701, 82.50603070175438, 81.75986842105263, 82.7532894736842, 84.67790570175438, 84.13377192982456, 81.78947368421052, 83.12225877192982, 82.24588815789474, 81.02247807017544, 82.07319078947368, 83.33004385964912, 83.01069078947368, 83.57675438596492, 82.08168859649123, 82.42900219298245, 84.44051535087719, 84.7077850877193, 83.28508771929825, 83.08114035087719, 82.42269736842105, 81.25246710526316, 81.54605263157895, 82.93092105263158, 82.5359100877193, 81.58004385964912, 82.32565789473684, 83.44654605263158, 83.56935307017544, 83.57373903508773, 82.59594298245614, 82.9594298245614, 82.9624451754386, 83.15131578947368, 82.22697368421052, 81.6938048245614, 84.13048245614036, 82.87609649122807, 84.4298245614035, 82.89638157894737, 84.27549342105263, 84.13569078947368, 82.4141995614035, 81.39501096491227, 81.88623903508773, 82.46710526315789, 82.72258771929825, 82.74561403508773, 82.02110745614036, 83.04440789473684, 82.37390350877193, 85.13240131578948, 81.78536184210526, 81.91173245614036, 81.20614035087719, 81.31469298245614, 81.19956140350877, 82.46573464912281, 81.73930921052632, 81.13103070175438, 81.20285087719299, 81.65816885964912, 82.69270833333333, 81.40844298245614, 82.72998903508773, 83.67269736842105, 82.58004385964912, 82.94928728070175, 82.79550438596492, 84.57620614035088, 83.7297149122807, 83.98026315789474, 84.19901315789474, 83.34978070175438, 84.80537280701755, 83.51918859649123, 83.34320175438596, 82.89583333333333, 82.19133771929825, 81.34895833333333, 83.22587719298245, 83.15515350877193, 82.75603070175438, 82.94791666666667, 83.42132675438596, 83.16968201754386, 83.10690789473684, 83.15871710526316, 84.01973684210526, 83.17050438596492, 82.83881578947368, 83.36047149122807, 82.27604166666667, 83.51480263157895, 84.52549342105263, 83.39610745614036, 83.16008771929825, 83.1529605263158, 80.55811403508773, 81.39446271929825, 81.9172149122807, 81.55427631578948, 81.9953399122807, 82.06140350877193, 82.15460526315789, 83.12116228070175, 82.09484649122807, 82.31496710526316, 81.87637061403508, 82.25986842105263, 82.23273026315789, 82.2376644736842, 83.05756578947368, 81.87280701754386, 81.6170504385965, 81.18393640350877, 81.5109649122807, 81.34100877192982, 80.84429824561404, 80.71820175438596, 81.8670504385965, 81.99588815789474, 81.55893640350877, 81.94298245614036, 82.15816885964912, 82.26535087719299, 82.46271929824562, 81.4095394736842, 82.79577850877193, 82.48793859649123, 81.88651315789474, 81.8626644736842, 81.78645833333333, 81.71655701754386, 82.85827850877193, 83.03837719298245, 82.92927631578948, 82.24506578947368, 82.11513157894737, 82.73245614035088, 82.4251644736842, 82.37938596491227, 82.19873903508773, 83.17434210526316, 82.80537280701755, 83.39254385964912, 82.88952850877193, 82.65076754385964, 81.60800438596492, 81.16803728070175, 81.77549342105263, 81.84594298245614, 83.26315789473684, 82.66118421052632, 81.97450657894737, 82.32565789473684, 82.09100877192982, 82.27878289473684, 82.79111842105263, 82.39802631578948, 80.8157894736842, 82.11979166666667, 82.71326754385964, 82.60910087719299, 81.0671600877193, 82.32264254385964, 80.60718201754386, 81.34183114035088, 82.60690789473684, 82.56085526315789, 82.32510964912281, 84.02001096491227, 82.7609649122807, 83.26315789473684, 83.01041666666667, 83.6485745614035, 82.66885964912281, 83.21162280701755, 81.83114035087719, 81.30701754385964, 81.5578399122807, 81.88760964912281, 81.6811951754386, 83.04111842105263, 83.32565789473684, 82.3374451754386, 81.54605263157895, 81.32757675438596, 81.10389254385964, 81.80400219298245, 81.99122807017544, 82.56633771929825, 80.49479166666667, 81.98684210526316, 81.49753289473684, 82.40570175438596, 82.61677631578948, 82.69627192982456, 82.86540570175438, 82.27055921052632, 81.61019736842105, 81.72039473684211, 81.75191885964912, 81.4766995614035, 81.89939692982456, 81.55674342105263, 81.32949561403508, 82.39555921052632, 81.21957236842105, 81.6875, 82.6126644736842, 82.36129385964912, 81.32949561403508, 81.7702850877193, 82.07620614035088, 82.02960526315789, 81.31606359649123, 81.26151315789474, 83.01617324561404, 82.6060855263158, 82.34786184210526, 82.22752192982456, 80.9564144736842, 80.44270833333333, 80.98574561403508, 81.59457236842105, 81.27302631578948, 79.92708333333333, 79.90460526315789, 80.42050438596492, 81.6499451754386, 80.56222587719299, 81.35498903508773, 80.55975877192982, 81.76041666666667, 81.31688596491227, 82.01398026315789, 82.10800438596492, 82.02768640350877, 81.70038377192982, 82.28837719298245, 81.72752192982456, 81.62088815789474, 80.22395833333333, 80.68092105263158, 82.44791666666667, 82.19627192982456, 81.76069078947368, 81.30098684210526, 81.88569078947368, 81.03782894736842, 81.82648026315789, 80.48218201754386, 81.04714912280701, 81.3201754385965, 82.02384868421052, 82.58497807017544, 82.9766995614035, 81.43585526315789, 80.47724780701755, 82.10252192982456, 83.35718201754386, 81.17927631578948, 79.46463815789474, 81.00986842105263, 81.13898026315789, 81.24451754385964, 81.03179824561404, 81.19462719298245, 80.61787280701755, 82.01288377192982, 82.22066885964912, 81.0109649122807, 83.22066885964912, 82.65570175438596, 80.71765350877193, 82.6485745614035, 82.3001644736842, 80.4654605263158, 81.45888157894737, 79.85334429824562, 81.42434210526316, 80.53262061403508, 81.48300438596492, 80.08059210526316, 80.85361842105263, 79.93996710526316, 80.09923245614036, 80.93503289473684, 80.66776315789474, 81.07510964912281, 80.56907894736842, 80.84758771929825, 80.33799342105263, 81.19435307017544, 80.78262061403508, 79.51946271929825, 79.34923245614036, 79.71134868421052, 79.44572368421052, 79.87390350877193, 79.9454495614035, 80.71765350877193, 80.10635964912281, 80.9141995614035, 79.86677631578948, 81.28618421052632, 79.73410087719299, 79.59265350877193, 78.49095394736842, 79.41694078947368, 80.06085526315789, 81.0827850877193, 80.50712719298245, 80.01452850877193, 80.53316885964912, 79.890625, 79.00493421052632, 79.06853070175438, 77.359375, 79.04248903508773, 78.8188048245614, 79.44462719298245, 78.74725877192982, 79.86293859649123, 77.82319078947368, 78.86019736842105, 77.99451754385964, 77.65981359649123, 77.54084429824562, 78.3859649122807, 78.28015350877193, 79.56140350877193, 78.41776315789474, 78.91584429824562, 79.1329495614035, 78.7453399122807, 77.78481359649123, 78.75575657894737, 78.14610745614036, 78.91968201754386, 80.19599780701755, 79.07072368421052, 79.94243421052632, 80.27110745614036, 79.70970394736842, 80.81003289473684, 79.19490131578948, 77.77220394736842, 79.29413377192982, 79.86485745614036, 78.54632675438596, 79.57428728070175, 78.78728070175438, 77.90871710526316, 76.95175438596492, 78.20668859649123, 79.88651315789474, 78.74095394736842, 78.71052631578948, 79.25493421052632, 78.59100877192982, 78.81633771929825, 78.50657894736842, 79.57538377192982, 78.86019736842105, 78.5734649122807, 79.20175438596492, 78.96271929824562, 78.45586622807018, 78.53865131578948, 77.72779605263158, 77.9468201754386, 78.39199561403508, 77.53152412280701, 78.56085526315789, 79.72752192982456, 80.10526315789474, 77.78234649122807, 78.24150219298245, 77.59018640350877, 78.22779605263158, 78.40131578947368, 79.03536184210526, 78.95367324561404, 78.69325657894737, 78.48930921052632, 79.15213815789474, 77.92269736842105, 79.56633771929825, 79.89336622807018, 79.46491228070175, 77.71025219298245, 78.79084429824562, 79.5501644736842, 79.89473684210526, 79.00356359649123, 78.5814144736842, 80.04139254385964, 78.84347587719299, 79.20339912280701, 77.70422149122807, 79.39638157894737, 78.2749451754386, 78.12198464912281, 77.81085526315789, 78.4015899122807, 77.05893640350877, 78.45065789473684, 78.16885964912281, 77.61047149122807, 78.88349780701755, 79.30646929824562, 78.36348684210526, 77.95093201754386, 78.2390350877193, 78.00603070175438, 78.77275219298245, 77.99259868421052, 79.65871710526316, 77.20010964912281, 78.23190789473684, 78.26398026315789, 78.72286184210526, 78.19407894736842, 77.7532894736842, 77.71299342105263, 76.55592105263158, 77.06633771929825, 77.81935307017544, 78.12362938596492, 77.64939692982456, 78.31962719298245, 78.01699561403508, 78.33771929824562, 78.11101973684211, 78.85581140350877, 79.01699561403508, 78.4328399122807, 77.79468201754386, 78.6968201754386, 79.89364035087719, 78.73355263157895, 79.35361842105263, 78.77275219298245, 77.21628289473684, 78.23793859649123, 78.27083333333333, 77.7609649122807, 76.98821271929825, 77.58854166666667, 79.15762061403508, 77.58771929824562, 78.16310307017544, 76.56359649122807, 74.93941885964912, 76.80345394736842, 76.2266995614035, 78.25740131578948, 78.07730263157895, 78.99945175438596, 77.86458333333333, 78.28015350877193, 77.53179824561404, 78.10334429824562, 77.51589912280701, 76.5063048245614, 77.3514254385965, 75.86129385964912, 77.22478070175438, 76.22998903508773, 77.3514254385965, 77.00493421052632, 77.96847587719299, 77.55290570175438, 77.29769736842105, 78.39775219298245, 77.30235745614036, 77.91502192982456, 78.00849780701755, 77.69051535087719, 78.1030701754386, 79.78563596491227, 78.4468201754386, 78.28865131578948, 79.5079495614035, 78.93941885964912, 78.3157894736842, 77.05263157894737, 76.65076754385964, 76.26617324561404, 76.81030701754386, 76.93475877192982, 76.22395833333333, 77.57099780701755, 76.81770833333333, 75.64939692982456, 77.52686403508773, 78.63541666666667, 77.33086622807018, 79.03618421052632, 77.5, 77.8626644736842, 77.50054824561404, 77.51315789473684, 78.22752192982456, 77.20860745614036, 76.36622807017544, 76.77220394736842, 78.46628289473684, 75.65542763157895, 78.15570175438596, 76.64665570175438, 76.10252192982456, 78.36019736842105, 77.09731359649123, 76.37637061403508, 77.63240131578948, 77.17379385964912, 79.02987938596492, 78.07894736842105, 77.30729166666667, 77.78262061403508, 77.56003289473684, 77.37280701754386, 76.29577850877193, 77.8048245614035, 78.74780701754386, 77.71820175438596, 77.1811951754386, 76.18804824561404, 76.9029605263158, 76.71436403508773, 76.98958333333333, 77.52741228070175, 76.83717105263158, 77.07702850877193, 77.20888157894737, 77.14089912280701, 77.54139254385964, 78.49259868421052, 77.57538377192982, 77.52686403508773, 77.95668859649123, 77.18037280701755, 76.51864035087719, 77.3248355263158, 77.03289473684211, 76.9608004385965, 77.20339912280701, 78.50164473684211, 77.2779605263158, 75.7765899122807, 76.60087719298245, 76.65926535087719, 76.79002192982456, 76.37472587719299, 76.32154605263158, 75.6529605263158, 75.63514254385964, 76.7280701754386, 76.79742324561404, 77.66694078947368, 77.8829495614035, 76.04989035087719, 75.65625, 76.5515350877193, 77.46820175438596, 76.44133771929825, 75.0123355263158, 75.88212719298245, 76.31962719298245, 78.18530701754386, 77.79495614035088, 77.75191885964912, 78.4967105263158, 77.71326754385964, 77.24342105263158, 77.34237938596492, 78.62116228070175, 77.1156798245614, 77.15570175438596, 77.19462719298245, 77.55948464912281, 77.82922149122807, 78.65241228070175, 77.59128289473684, 78.50657894736842, 76.79824561403508, 76.89336622807018, 76.83689692982456, 77.96957236842105, 77.8314144736842, 76.78344298245614, 77.13322368421052, 77.56112938596492, 77.13706140350877, 77.65597587719299, 78.45970394736842, 77.1811951754386, 76.60032894736842, 75.22423245614036, 77.22066885964912, 75.58771929824562, 77.20230263157895, 76.68667763157895, 77.17269736842105, 77.20339912280701, 77.859375, 76.90762061403508, 78.88651315789474, 77.0265899122807, 75.7094298245614, 77.16913377192982, 76.4454495614035, 77.22313596491227, 75.64226973684211, 76.52768640350877, 75.89665570175438, 75.2406798245614, 75.14967105263158, 75.91365131578948, 76.5904605263158, 77.18887061403508, 74.72286184210526, 74.67406798245614, 75.51206140350877, 76.84183114035088, 77.01918859649123, 76.53234649122807, 77.30180921052632, 78.28782894736842, 76.61348684210526, 76.94051535087719, 75.4797149122807, 75.29276315789474, 75.54166666666667, 74.77741228070175, 76.06661184210526, 76.63706140350877, 75.27850877192982, 76.22258771929825, 75.27412280701755, 75.21271929824562, 76.59073464912281, 76.54029605263158, 75.6685855263158, 75.14309210526316, 77.04276315789474, 76.96628289473684, 75.9139254385965, 77.4438048245614, 75.90515350877193, 76.37993421052632, 75.31058114035088, 76.3983004385965, 75.77768640350877, 75.84018640350877, 76.27521929824562, 76.16748903508773, 77.44051535087719, 75.6968201754386, 76.55071271929825, 75.47012061403508, 75.20010964912281, 76.45614035087719, 74.53289473684211, 75.6655701754386, 74.78481359649123, 76.33826754385964, 76.7609649122807, 76.4125548245614, 76.01041666666667, 75.27467105263158, 76.1156798245614, 75.51836622807018, 76.68996710526316, 76.38020833333333, 75.62390350877193, 76.64610745614036, 76.3327850877193, 75.84594298245614, 75.42351973684211, 76.1313048245614, 76.58333333333333, 75.64281798245614, 74.81496710526316, 75.93229166666667, 75.71984649122807, 75.59978070175438, 75.23026315789474, 75.62691885964912, 76.04989035087719, 75.99643640350877, 75.30811403508773, 75.21792763157895, 76.82976973684211, 76.80811403508773, 76.97724780701755, 76.08223684210526, 76.64254385964912, 75.76069078947368, 75.51507675438596, 76.12609649122807, 75.70202850877193, 76.54961622807018, 76.45367324561404, 75.11513157894737, 73.58963815789474, 76.17790570175438, 76.96134868421052, 75.71573464912281, 75.0279605263158, 75.6326754385965, 75.10115131578948, 75.58552631578948, 74.29577850877193, 75.59978070175438, 75.30592105263158, 75.42242324561404, 75.54413377192982, 75.86896929824562, 77.10855263157895, 74.40460526315789, 75.08470394736842, 75.18201754385964, 77.00493421052632, 77.15816885964912, 76.0109649122807, 76.92434210526316, 77.32401315789474, 76.85224780701755, 75.92598684210526, 75.32538377192982, 75.77467105263158, 77.09100877192982, 75.2264254385965, 74.53563596491227, 75.50712719298245, 75.53618421052632, 76.64254385964912, 76.65926535087719, 75.83936403508773, 76.15734649122807, 75.41611842105263, 74.32538377192982, 76.47916666666667, 76.40433114035088, 76.1639254385965, 74.87637061403508, 75.41063596491227, 76.33881578947368, 76.05701754385964, 73.82675438596492, 76.63706140350877, 76.40350877192982, 76.78481359649123, 78.03344298245614, 76.11814692982456, 77.24972587719299, 77.3560855263158, 76.70723684210526, 76.11924342105263, 76.92626096491227, 76.91885964912281, 76.83251096491227, 77.09758771929825, 77.47258771929825, 76.53782894736842, 75.7077850877193, 77.19188596491227, 76.57099780701755, 75.97231359649123, 76.13020833333333, 77.50027412280701, 76.04989035087719, 76.66611842105263, 75.07510964912281, 75.13898026315789, 76.59676535087719, 76.23410087719299, 76.33086622807018, 74.7546600877193, 74.82264254385964, 75.65625, 75.51617324561404, 75.4923245614035, 75.82839912280701, 75.29029605263158, 75.3873355263158, 75.54769736842105, 75.7266995614035, 76.84402412280701, 77.01452850877193, 75.81907894736842, 77.10718201754386]</t>
+          <t>[87.95833333333333, 90.14583333333333, 90.53333333333333, 88.7125, 90.725, 91.6625, 94.80416666666666, 87.2625, 93.69166666666666, 93.20416666666667, 92.76666666666667, 91.3625, 94.18333333333334, 92.8625, 92.23333333333333, 89.7375, 92.56666666666666, 90.44166666666666, 89.71666666666667, 86.70833333333333, 62.62916666666667, 64.34166666666667, 64.80416666666666, 68.27083333333333, 66.35833333333333, 66.9875, 68.1125, 70.2625, 67.35833333333333, 72.35416666666667, 70.025, 72.64166666666667, 69.4375, 74.84583333333333, 71.75, 71.48333333333333, 71.7125, 73.62916666666666, 70.62916666666666, 75.94583333333334, 72.94583333333334, 71.49166666666666, 71.95833333333333, 75.86666666666666, 73.85833333333333, 77.45, 74.67916666666666, 75.975, 75.53333333333333, 75.47083333333333, 78.74166666666666, 76.525, 81.2125, 78.15416666666667, 78.06666666666666, 80.925, 79.74166666666666, 81.1375, 77.4625, 80.35, 80.88333333333334, 79.15, 81.45833333333333, 81.95416666666667, 80.64583333333333, 79.99166666666666, 81.24583333333334, 83.02083333333333, 82.04166666666667, 83.14583333333333, 82.53333333333333, 83.75, 84.10416666666667, 80.60416666666667, 82.78333333333333, 83.14166666666667, 78.87916666666666, 84.90416666666667, 82.8625, 81.84583333333333, 82.62083333333334, 85.05833333333334, 79.45416666666667, 83.31666666666666, 83.81666666666666, 85.0375, 78.60833333333333, 83.23333333333333, 85.625, 80.275, 84.74583333333334, 84.975, 85.88333333333334, 81.4625, 78.29166666666667, 85.54166666666667, 80.675, 84.475, 80.64166666666667, 81.00416666666666, 81.27083333333333, 85.1875, 84.7625, 84.8, 83.15833333333333, 83.4625, 80.4, 87.89583333333333, 83.71666666666667, 83.625, 83.79583333333333, 84.35833333333333, 83.94166666666666, 82.5375, 85.15833333333333, 83.20416666666667, 85.14583333333333, 83.44166666666666, 82.29166666666667, 84.6, 85.57916666666667, 85.45416666666667, 86.31666666666666, 84.8625, 84.3125, 84.0625, 87.41666666666667, 82.9875, 81.10416666666667, 86.04583333333333, 82.43333333333334, 86.09583333333333, 88.85, 83.39166666666667, 84.24583333333334, 85.34166666666667, 85.14583333333333, 83.09583333333333, 85.91666666666667, 82.64166666666667, 86.67916666666666, 86.1, 84.96666666666667, 81.79583333333333, 82.40833333333333, 83.6125, 88.90416666666667, 85.6375, 90.32916666666667, 85.44583333333334, 84.42916666666666, 84.40416666666667, 86.4, 87.32083333333334, 86.30416666666666, 84.52916666666667, 90.43333333333334, 86.54583333333333, 82.95416666666667, 87.5, 88.2125, 84.7625, 84.08333333333333, 83.45833333333333, 84.0, 85.65416666666667, 84.99583333333334, 85.9375, 86.03333333333333, 87.35416666666667, 84.84166666666667, 86.96666666666667, 87.44166666666666, 84.325, 86.0, 86.86666666666666, 87.12916666666666, 89.30833333333334, 89.32083333333334, 85.49166666666666, 84.73333333333333, 84.875, 87.025, 85.8125, 88.3375, 87.81666666666666, 86.775, 85.8, 86.1625, 83.12083333333334, 86.03333333333333, 84.15416666666667, 82.92083333333333, 83.04583333333333, 83.66666666666667, 84.6375, 85.39583333333333, 86.94166666666666, 86.65416666666667, 85.47083333333333, 86.67083333333333, 87.56666666666666, 85.425, 87.49583333333334, 87.45833333333333, 84.58333333333333, 84.38333333333334, 82.8625, 81.87916666666666, 83.57916666666667, 83.67083333333333, 85.4625, 84.12083333333334, 85.6, 82.95, 88.3375, 89.02083333333333, 84.325, 87.45, 86.05416666666666, 85.84166666666667, 83.59166666666667, 90.05416666666666, 87.84166666666667, 84.4875, 88.30416666666666, 84.3625, 83.94166666666666, 82.5, 83.51666666666667, 86.26666666666667, 82.5875, 84.92916666666666, 85.20833333333333, 80.08333333333333, 86.87916666666666, 84.69583333333334, 87.31666666666666, 83.50833333333334, 83.72916666666667, 83.79166666666667, 82.60833333333333, 85.85, 85.0375, 81.65, 84.14166666666667, 84.63333333333334, 84.025, 84.75, 89.34583333333333, 84.425, 84.46666666666667, 81.2875, 86.00833333333334, 85.64166666666667, 83.12916666666666, 81.6375, 85.21666666666667, 84.58333333333333, 82.76666666666667, 83.25, 83.65, 87.7, 82.92916666666666, 84.93333333333334, 85.03333333333333, 88.80833333333334, 85.54583333333333, 85.11666666666666, 86.75416666666666, 84.60833333333333, 85.09166666666667, 85.70833333333333, 81.95, 84.12083333333334, 81.56666666666666, 83.02083333333333, 81.04166666666667, 84.7, 79.72916666666667, 81.54583333333333, 81.22083333333333, 84.4125, 80.6, 84.43333333333334, 85.025, 81.2625, 83.60416666666667, 85.39583333333333, 84.74166666666666, 85.30416666666666, 84.84583333333333, 82.5, 79.99166666666666, 84.24583333333334, 84.04583333333333, 84.30416666666666, 82.07916666666667, 84.3875, 82.02916666666667, 84.6375, 83.70833333333333, 84.64583333333333, 81.30833333333334, 87.44166666666666, 84.12916666666666, 80.98333333333333, 83.61666666666666, 88.07916666666667, 84.92083333333333, 81.2875, 81.87083333333334, 81.87083333333334, 82.88333333333334, 80.59583333333333, 85.75, 84.54583333333333, 86.08333333333333, 83.41666666666667, 83.99583333333334, 86.2, 85.075, 80.86666666666666, 86.91666666666667, 83.54583333333333, 80.20416666666667, 83.34166666666667, 85.35833333333333, 84.85, 80.98333333333333, 80.9875, 86.10416666666667, 82.9375, 83.35833333333333, 84.6375, 82.62916666666666, 80.95416666666667, 84.44166666666666, 84.35416666666667, 81.35833333333333, 86.77083333333333, 84.59583333333333, 83.99166666666666, 84.49166666666666, 87.33333333333333, 87.84583333333333, 83.95833333333333, 83.44583333333334, 82.74583333333334, 85.44166666666666, 82.87916666666666, 88.05833333333334, 82.9, 80.425, 82.61666666666666, 83.66666666666667, 81.8375, 82.41666666666667, 82.24166666666666, 82.675, 82.12083333333334, 82.65833333333333, 82.925, 81.49583333333334, 83.02916666666667, 82.11666666666666, 81.57083333333334, 80.8375, 82.6625, 87.5125, 86.42083333333333, 84.8125, 82.91666666666667, 87.2875, 87.0375, 83.4125, 82.7125, 84.38333333333334, 87.49166666666666, 82.68333333333334, 84.23333333333333, 83.99166666666666, 81.65416666666667, 77.57916666666667, 82.9625, 84.19583333333334, 83.85833333333333, 82.05, 85.78333333333333, 82.89583333333333, 84.5875, 82.6375, 84.79583333333333, 85.3125, 86.4875, 85.1375, 81.85416666666667, 82.4625, 84.70416666666667, 81.3875, 86.42916666666666, 83.37916666666666, 80.85416666666667, 82.10416666666667, 81.91666666666667, 84.75833333333334, 82.00833333333334, 84.76666666666667, 82.2125, 82.7375, 84.72916666666667, 86.02083333333333, 81.79583333333333, 83.3625, 83.9625, 79.72083333333333, 83.9125, 85.80416666666666, 82.7, 81.6875, 81.47916666666667, 82.2875, 82.70833333333333, 83.1, 82.775, 83.50833333333334, 81.07083333333334, 82.82916666666667, 83.8125, 83.82083333333334, 82.91666666666667, 82.52083333333333, 82.83333333333333, 83.85416666666667, 84.275, 84.35, 83.25833333333334, 81.20416666666667, 85.98333333333333, 85.97083333333333, 84.05416666666666, 85.78333333333333, 82.075, 85.3375, 85.0, 83.4, 83.77083333333333, 84.625, 82.43333333333334, 86.91666666666667, 84.34166666666667, 82.16666666666667, 82.43333333333334, 81.22916666666667, 85.125, 81.075, 87.6625, 86.25833333333334, 82.79166666666667, 81.54583333333333, 87.225, 84.2625, 81.95416666666667, 84.30416666666666, 80.1125, 80.67916666666666, 82.99583333333334, 82.35, 82.31666666666666, 83.35416666666667, 84.00416666666666, 81.97083333333333, 81.55416666666666, 84.9625, 86.19166666666666, 86.35416666666667, 83.07916666666667, 85.09583333333333, 83.04166666666667, 85.60416666666667, 85.11666666666666, 82.66666666666667, 83.73333333333333, 83.69583333333334, 83.04583333333333, 82.59166666666667, 83.08333333333333, 83.3, 84.14166666666667, 84.42083333333333, 82.75, 80.28333333333333, 81.8125, 80.05833333333334, 84.39583333333333, 82.6375, 79.85833333333333, 83.38333333333334, 83.65, 81.65416666666667, 83.93333333333334, 83.62083333333334, 83.85, 80.02916666666667, 82.01666666666667, 79.525, 84.10833333333333, 79.90833333333333, 82.2, 79.02916666666667, 81.95, 81.97083333333333, 79.93333333333334, 79.6, 82.77083333333333, 78.45416666666667, 83.52083333333333, 81.62083333333334, 82.21666666666667, 85.49583333333334, 82.9375, 83.0375, 83.64583333333333, 84.55833333333334, 85.99166666666666, 87.22916666666667, 80.5625, 81.5875, 84.4625, 81.10833333333333, 81.65, 80.59583333333333, 81.9375, 80.55416666666666, 84.42916666666666, 81.09166666666667, 80.11666666666666, 83.97083333333333, 85.69583333333334, 84.475, 81.85, 83.19166666666666, 83.2875, 85.6, 82.5125, 85.7375, 82.6, 79.95833333333333, 82.15833333333333, 82.525, 84.8875, 85.14166666666667, 82.34166666666667, 80.57916666666667, 80.34583333333333, 80.35833333333333, 83.0, 81.57083333333334, 81.45416666666667, 83.09583333333333, 83.9, 84.61666666666666, 85.91666666666667, 78.89166666666667, 82.70833333333333, 83.06666666666666, 83.2375, 79.18333333333334, 82.94166666666666, 81.22916666666667, 80.60833333333333, 82.68333333333334, 79.46666666666667, 81.89583333333333, 84.0, 86.60416666666667, 84.22916666666667, 86.71666666666667, 83.97083333333333, 81.75416666666666, 81.35416666666667, 85.04583333333333, 82.07916666666667, 81.8875, 80.74583333333334, 85.09583333333333, 83.00833333333334, 87.0625, 78.04166666666667, 82.625, 79.3, 81.79166666666667, 80.5125, 79.25833333333334, 81.6375, 79.44166666666666, 80.83333333333333, 82.02916666666667, 79.49166666666666, 81.97916666666667, 77.95416666666667, 77.19583333333334, 79.92083333333333, 81.65833333333333, 80.25, 79.3, 79.68333333333334, 79.44583333333334, 80.56666666666666, 81.625, 83.59166666666667, 83.825, 80.33333333333333, 80.9875, 80.55, 81.27083333333333, 83.58333333333333, 83.1125, 84.66666666666667, 81.76666666666667, 80.02916666666667, 81.0375, 79.72083333333333, 81.18333333333334, 78.60416666666667, 80.69166666666666, 79.19583333333334, 78.35416666666667, 78.99583333333334, 82.09583333333333, 79.6125, 80.59583333333333, 79.3125, 78.93333333333334, 78.17916666666666, 78.075, 80.45833333333333, 80.27916666666667, 80.02083333333333, 79.52083333333333, 77.77916666666667, 79.57083333333334, 79.37083333333334, 80.85, 81.41666666666667, 77.72083333333333, 80.57083333333334, 81.47083333333333, 82.90833333333333, 82.625, 82.5625, 80.5625, 78.70833333333333, 79.47083333333333, 82.01666666666667, 77.975, 81.08333333333333, 79.60833333333333, 77.75416666666666, 78.38333333333334, 79.0, 80.97916666666667, 81.27083333333333, 80.49166666666666, 79.65833333333333, 80.44166666666666, 80.85416666666667, 81.225, 79.87083333333334, 78.81666666666666, 79.99583333333334, 78.04166666666667, 75.93333333333334, 80.00416666666666, 79.87083333333334, 82.1, 80.93333333333334, 80.0375, 78.75, 77.50416666666666, 79.30416666666666, 77.95, 77.8125, 76.9625, 75.925, 78.0625, 79.03333333333333, 77.94583333333334, 76.0625, 81.32916666666667, 77.14583333333333, 76.925, 77.29166666666667, 82.71666666666667, 78.95833333333333, 77.10416666666667, 77.60833333333333, 77.75, 78.60416666666667, 80.675, 77.8625, 81.36666666666666, 81.88333333333334, 78.19166666666666, 80.62083333333334, 80.59166666666667, 83.15, 82.08333333333333, 76.8875, 80.87083333333334, 79.62083333333334, 77.57083333333334, 82.49166666666666, 78.07916666666667, 80.04166666666667, 81.98333333333333, 80.9625, 76.42916666666666, 78.40833333333333, 79.12083333333334, 78.40833333333333, 81.69583333333334, 78.29166666666667, 80.89166666666667, 75.4625, 77.74583333333334, 77.275, 77.8375, 79.52083333333333, 78.27916666666667, 79.23333333333333, 80.2875, 79.7, 77.02083333333333, 79.82916666666667, 78.125, 79.68333333333334, 84.40416666666667, 80.92916666666666, 80.87083333333334, 81.19166666666666, 81.92916666666666, 83.21666666666667, 79.14583333333333, 81.24166666666666, 82.4125, 80.375, 79.35, 81.3875, 81.28333333333333, 80.49166666666666, 78.43333333333334, 78.86666666666666, 78.37916666666666, 78.23333333333333, 81.71666666666667, 77.80416666666666, 78.74166666666666, 77.60416666666667, 73.47916666666667, 79.62083333333334, 78.425, 76.07916666666667, 81.5375, 78.81666666666666, 78.89166666666667, 77.79166666666667, 78.77083333333333, 76.99583333333334, 78.32083333333334, 76.0625, 80.25416666666666, 76.47083333333333, 78.19166666666666, 76.08333333333333, 79.94166666666666, 78.04166666666667, 80.675, 78.77916666666667, 79.80416666666666, 79.14583333333333, 79.91666666666667, 79.72916666666667, 79.15833333333333, 77.62083333333334, 77.925, 81.2875, 79.81666666666666, 79.83333333333333, 78.56666666666666, 77.125, 81.15, 78.62083333333334, 81.57916666666667, 76.8875, 76.7, 77.64166666666667, 78.27083333333333, 80.62083333333334, 77.7625, 73.0375, 78.39583333333333, 80.275, 75.90416666666667, 78.17916666666666, 77.27083333333333, 76.2, 77.15416666666667, 78.62916666666666, 78.90833333333333, 77.11666666666666, 75.17916666666666, 76.85416666666667, 81.33333333333333, 76.75416666666666, 75.68333333333334, 75.90833333333333, 76.375, 80.95, 77.52083333333333, 72.5375, 78.29583333333333, 77.34166666666667, 80.32916666666667, 78.15, 76.49583333333334, 79.02083333333333, 78.5125, 76.43333333333334, 76.23333333333333, 77.85833333333333, 76.4875, 80.625, 76.99166666666666, 75.39166666666667, 74.62083333333334, 75.99166666666666, 78.59166666666667, 77.03333333333333, 77.40416666666667, 76.62083333333334, 74.8125, 76.78333333333333, 74.19166666666666, 78.97083333333333, 80.4125, 76.07083333333334, 77.475, 78.05, 77.525, 76.8625, 78.65416666666667, 76.67083333333333, 75.87916666666666, 82.325, 73.7375, 76.81666666666666, 77.11666666666666, 76.84583333333333, 78.60416666666667, 79.30833333333334, 77.0, 74.53333333333333, 76.1, 76.39166666666667, 76.00416666666666, 82.2875, 81.6375, 73.85, 76.21666666666667, 74.85833333333333, 77.175, 75.15833333333333, 71.69166666666666, 75.04583333333333, 76.09166666666667, 78.25416666666666, 78.375, 77.3375, 82.54583333333333, 78.44583333333334, 77.80833333333334, 77.2125, 78.12083333333334, 78.45, 76.39583333333333, 79.15416666666667, 77.25416666666666, 75.62916666666666, 79.85, 79.375, 78.66666666666667, 77.93333333333334, 79.30833333333334, 75.56666666666666, 80.525, 79.025, 81.3625, 75.8875, 78.92083333333333, 79.44583333333334, 78.99583333333334, 77.17916666666666, 77.49166666666666, 75.42916666666666, 76.95416666666667, 77.82083333333334, 76.16666666666667, 79.6625, 78.15, 77.675, 76.79166666666667, 80.71666666666667, 75.57083333333334, 79.425, 77.50416666666666, 79.725, 76.16666666666667, 77.82083333333334, 79.47083333333333, 75.15833333333333, 76.10833333333333, 77.53333333333333, 77.3, 77.53333333333333, 80.59166666666667, 75.10833333333333, 77.36666666666666, 75.5375, 75.91666666666667, 77.41666666666667, 79.725, 78.71666666666667, 76.925, 76.5125, 76.25416666666666, 76.64583333333333, 78.24583333333334, 76.43333333333334, 76.43333333333334, 76.0, 74.94166666666666, 76.23333333333333, 75.9, 78.14166666666667, 78.58333333333333, 76.95, 75.13333333333334, 77.58333333333333, 76.62083333333334, 75.40833333333333, 75.8875, 77.09166666666667, 76.50833333333334, 76.70416666666667, 79.4, 78.52083333333333, 77.425, 75.6, 76.40833333333333, 77.4125, 75.46666666666667, 78.80833333333334, 79.97083333333333, 76.7625, 75.6875, 77.27916666666667, 77.55416666666666, 74.05, 77.24166666666666, 76.60416666666667, 76.44583333333334, 74.5875, 74.6625, 76.80833333333334, 75.35416666666667, 77.85416666666667, 76.75416666666666, 77.92916666666666, 76.825, 78.9625, 77.9, 76.11666666666666, 77.75416666666666, 75.57916666666667, 77.02083333333333, 76.29166666666667, 75.425, 76.56666666666666, 76.77083333333333, 76.475, 76.325, 78.96666666666667, 75.875, 74.675, 76.5, 77.5375, 78.56666666666666, 76.67916666666666, 78.575, 79.59583333333333, 78.90416666666667, 77.35416666666667, 76.63333333333334, 78.8125, 77.74166666666666, 79.20833333333333, 78.55416666666666, 77.29583333333333, 78.37916666666666, 78.9125, 76.3375, 76.17916666666666, 77.25416666666666, 78.9875, 75.29166666666667, 74.725, 75.87916666666666, 77.80416666666666, 79.54583333333333, 73.92916666666666, 75.01666666666667, 79.64166666666667, 74.94583333333334, 75.9625, 79.45, 77.14166666666667, 77.40416666666667, 74.80833333333334, 76.025, 77.16666666666667, 76.77083333333333, 76.52083333333333, 77.3875, 78.52916666666667, 77.16666666666667, 77.36666666666666, 77.03333333333333, 79.05833333333334, 78.41666666666667, 77.2875, 74.02083333333333, 76.175, 77.325, 76.27916666666667, 76.93333333333334, 77.25416666666666, 76.03333333333333, 77.12916666666666, 78.16666666666667, 78.07916666666667, 75.64583333333333, 78.08333333333333, 77.2125, 75.35833333333333, 79.46666666666667, 76.25416666666666, 73.32083333333334, 79.92916666666666, 80.075, 81.17083333333333, 78.98333333333333, 78.45416666666667, 77.40416666666667, 80.7625, 77.08333333333333, 77.39166666666667, 79.2625, 77.525, 79.175, 78.35833333333333, 76.65, 78.89583333333333, 76.975, 80.1375, 79.57916666666667, 77.80416666666666, 80.0875, 79.16666666666667, 77.64583333333333, 78.3125, 77.47916666666667, 72.97916666666667, 78.44166666666666, 76.525, 77.72916666666667, 76.2625, 75.17916666666666, 75.87083333333334, 75.94166666666666, 76.95416666666667, 75.39583333333333, 71.775, 77.37916666666666, 77.15416666666667, 78.05, 76.52083333333333, 81.04166666666667, 78.60416666666667, 79.86666666666666]</t>
         </is>
       </c>
       <c r="APJ1" t="inlineStr">
         <is>
-          <t>[0.7331536388140162, 0.7035040431266847, 0.6433063791554358, 0.6756513926325247, 0.7223719676549866, 0.7502246181491464, 0.7304582210242587, 0.7735849056603774, 0.7610062893081762, 0.8149146451033243, 0.8023360287511231, 0.6549865229110512, 0.605570530098832, 0.6019766397124887, 0.6972147349505841, 0.5849056603773585, 0.6576819407008087, 0.6127583108715184, 0.6127583108715184, 0.6828391734052112, 0.7079964061096137, 0.7717879604672058, 0.6064690026954178, 0.6801437556154537, 0.5768194070080862, 0.7169811320754716, 0.7601078167115903, 0.8616352201257862, 0.6531895777178796, 0.6756513926325247, 0.6810422282120395, 0.6810422282120395, 0.7610062893081762, 0.692722371967655, 0.8221024258760108, 0.6891284815813118, 0.7205750224618149, 0.688230008984726, 0.6738544474393531, 0.7232704402515723, 0.779874213836478, 0.6891284815813118, 0.8418688230008985, 0.6253369272237197, 0.7672955974842768, 0.7241689128481581, 0.6945193171608266, 0.7583108715184187, 0.779874213836478, 0.7331536388140162, 0.8634321653189577, 0.6271338724168913, 0.7834681042228212, 0.6289308176100629, 0.7223719676549866, 0.8418688230008985, 0.7259658580413297, 0.6406109613656783, 0.6819407008086253, 0.7367475292003594, 0.6567834681042228, 0.7160826594788859, 0.6891284815813118, 0.6990116801437556, 0.7574123989218329, 0.5902964959568733, 0.6460017969451932, 0.8436657681940701, 0.8310871518418689, 0.7026055705300989, 0.7583108715184187, 0.6325247079964061, 0.710691823899371, 0.6801437556154537, 0.6397124887690926, 0.7250673854447439, 0.7259658580413297, 0.6945193171608266, 0.5336927223719676, 0.6846361185983828, 0.6846361185983828, 0.5741239892183289, 0.7394429469901168, 0.7879604672057502, 0.6684636118598383, 0.8247978436657682, 0.6990116801437556, 0.6765498652291105, 0.6810422282120395, 0.6792452830188679, 0.8607367475292004, 0.7681940700808625, 0.5606469002695418, 0.6999101527403414, 0.7277628032345014, 0.5983827493261455, 0.7556154537286612, 0.7646001796945193, 0.7493261455525606, 0.6828391734052112, 0.6469002695417789, 0.6325247079964061, 0.7780772686433064, 0.6684636118598383, 0.7969451931716083, 0.6864330637915543, 0.8050314465408805, 0.8472596585804133, 0.6792452830188679, 0.6792452830188679, 0.6082659478885895, 0.6262353998203055, 0.7520215633423181, 0.6864330637915543, 0.7861635220125787, 0.706199460916442, 0.6082659478885895, 0.6945193171608266, 0.6954177897574124, 0.8194070080862533, 0.8310871518418689, 0.7421383647798742, 0.7996406109613656, 0.5651392632524708, 0.7789757412398922, 0.6756513926325247, 0.816711590296496, 0.6253369272237197, 0.7628032345013477, 0.6873315363881402, 0.8751123090745733, 0.7277628032345014, 0.706199460916442, 0.6217430368373764, 0.7556154537286612, 0.6891284815813118, 0.6630727762803235, 0.6495956873315364, 0.6208445642407907, 0.7313566936208445, 0.788858939802336, 0.6424079065588499, 0.8283917340521114, 0.637915543575921, 0.834681042228212, 0.692722371967655, 0.6316262353998203, 0.6343216531895777, 0.7915543575920935, 0.9433962264150944, 0.6028751123090745, 0.6451033243486074, 0.8382749326145552, 0.7592093441150045, 0.7834681042228212, 0.7654986522911051, 0.6585804132973945, 0.655884995507637, 0.8517520215633423, 0.7214734950584007, 0.8319856244384546, 0.8131176999101527, 0.6208445642407907, 0.7070979335130279, 0.6576819407008087, 0.825696316262354, 0.7044025157232704, 0.7259658580413297, 0.6316262353998203, 0.692722371967655, 0.7592093441150045, 0.7044025157232704, 0.74303683737646, 0.577717879604672, 0.6406109613656783, 0.6945193171608266, 0.7079964061096137, 0.6442048517520216, 0.692722371967655, 0.8562443845462714, 0.8553459119496856, 0.7942497753818508, 0.7187780772686433, 0.756513926325247, 0.6801437556154537, 0.6190476190476191, 0.6828391734052112, 0.8490566037735849, 0.6711590296495957, 0.7439353099730458, 0.6199460916442049, 0.6540880503144654, 0.8122192273135669, 0.7250673854447439, 0.825696316262354, 0.6594788858939802, 0.8274932614555256, 0.6711590296495957, 0.8589398023360287, 0.6747529200359389, 0.706199460916442, 0.6855345911949685, 0.6433063791554358, 0.7115902964959568, 0.6774483378256964, 0.8553459119496856, 0.7852650494159928, 0.577717879604672, 0.8400718778077269, 0.7601078167115903, 0.7717879604672058, 0.5678346810422282, 0.6972147349505841, 0.8095238095238095, 0.738544474393531, 0.862533692722372, 0.5579514824797843, 0.6433063791554358, 0.6307277628032345, 0.6765498652291105, 0.6702605570530099, 0.8050314465408805, 0.7331536388140162, 0.683737646001797, 0.6747529200359389, 0.6972147349505841, 0.7097933513027853, 0.8158131176999102, 0.6397124887690926, 0.734052111410602, 0.8059299191374663, 0.7142857142857143, 0.6361185983827493, 0.6999101527403414, 0.6226415094339622, 0.7205750224618149, 0.7070979335130279, 0.6199460916442049, 0.7538185085354897, 0.7520215633423181, 0.6828391734052112, 0.7825696316262354, 0.7439353099730458, 0.7960467205750225, 0.5525606469002695, 0.788858939802336, 0.7484276729559748, 0.5561545372866128, 0.7403414195867026, 0.6531895777178796, 0.7807726864330637, 0.7178796046720575, 0.6693620844564241, 0.7376460017969452, 0.6127583108715184, 0.6469002695417789, 0.7394429469901168, 0.6819407008086253, 0.568733153638814, 0.7547169811320755, 0.6936208445642408, 0.7044025157232704, 0.660377358490566, 0.7026055705300989, 0.651392632524708, 0.7475292003593891, 0.5884995507637018, 0.734052111410602, 0.6891284815813118, 0.683737646001797, 0.7277628032345014, 0.77088948787062, 0.7466307277628033, 0.8032345013477089, 0.6621743036837376, 0.7421383647798742, 0.7196765498652291, 0.6136567834681043, 0.7286612758310872, 0.7196765498652291, 0.7349505840071878, 0.7583108715184187, 0.6495956873315364, 0.6469002695417789, 0.6810422282120395, 0.7313566936208445, 0.7601078167115903, 0.7268643306379156, 0.6235399820305481, 0.734052111410602, 0.6433063791554358, 0.7969451931716083, 0.7969451931716083, 0.6415094339622641, 0.6747529200359389, 0.6990116801437556, 0.6684636118598383, 0.5714285714285714, 0.7735849056603774, 0.7322551662174304, 0.6855345911949685, 0.6585804132973945, 0.5947888589398024, 0.7592093441150045, 0.6091644204851752, 0.8787061994609164, 0.7547169811320755, 0.6298292902066487, 0.6522911051212938, 0.8499550763701708, 0.6801437556154537, 0.8158131176999102, 0.6469002695417789, 0.8230008984725966, 0.4914645103324349, 0.692722371967655, 0.688230008984726, 0.734052111410602, 0.7744833782569631, 0.8122192273135669, 0.5992812219227314, 0.7097933513027853, 0.8517520215633423, 0.6352201257861635, 0.6388140161725068, 0.793351302785265, 0.7178796046720575, 0.6343216531895777, 0.6810422282120395, 0.637915543575921, 0.7538185085354897, 0.6810422282120395, 0.6585804132973945, 0.6531895777178796, 0.7717879604672058, 0.6226415094339622, 0.7232704402515723, 0.6271338724168913, 0.6864330637915543, 0.692722371967655, 0.7044025157232704, 0.7097933513027853, 0.7304582210242587, 0.6549865229110512, 0.7349505840071878, 0.8104222821203954, 0.5858041329739443, 0.7331536388140162, 0.7511230907457322, 0.6046720575022462, 0.6451033243486074, 0.701707097933513, 0.793351302785265, 0.6864330637915543, 0.6792452830188679, 0.7169811320754716, 0.7286612758310872, 0.6963162623539982, 0.5920934411500449, 0.6765498652291105, 0.7978436657681941, 0.6172506738544474, 0.7870619946091644, 0.8122192273135669, 0.6154537286612758, 0.628032345013477, 0.6621743036837376, 0.7133872416891285, 0.7358490566037735, 0.7331536388140162, 0.7268643306379156, 0.6145552560646901, 0.7403414195867026, 0.7053009883198562, 0.8292902066486972, 0.6666666666666666, 0.5669362084456424, 0.8589398023360287, 0.6163522012578616, 0.6495956873315364, 0.8706199460916442, 0.5974842767295597, 0.610062893081761, 0.6226415094339622, 0.8014375561545373, 0.7376460017969452, 0.7529200359389039, 0.7511230907457322, 0.651392632524708, 0.6954177897574124, 0.8679245283018868, 0.6442048517520216, 0.7654986522911051, 0.6073674752920036, 0.6747529200359389, 0.6073674752920036, 0.7376460017969452, 0.651392632524708, 0.6109613656783468, 0.7771787960467206, 0.5947888589398024, 0.7403414195867026, 0.8247978436657682, 0.816711590296496, 0.7610062893081762, 0.6702605570530099, 0.7169811320754716, 0.9308176100628931, 0.7178796046720575, 0.6909254267744834, 0.7026055705300989, 0.7502246181491464, 0.7511230907457322, 0.5974842767295597, 0.6756513926325247, 0.550763701707098, 0.7151841868823001, 0.74303683737646, 0.7996406109613656, 0.7744833782569631, 0.6477987421383647, 0.7619047619047619, 0.7035040431266847, 0.7960467205750225, 0.6864330637915543, 0.6891284815813118, 0.8014375561545373, 0.5804132973944295, 0.7493261455525606, 0.7439353099730458, 0.573225516621743, 0.6918238993710691, 0.6406109613656783, 0.7807726864330637, 0.633423180592992, 0.7376460017969452, 0.6172506738544474, 0.7457322551662174, 0.7304582210242587, 0.6567834681042228, 0.6711590296495957, 0.6424079065588499, 0.7035040431266847, 0.7502246181491464, 0.6873315363881402, 0.7592093441150045, 0.8032345013477089, 0.7439353099730458, 0.7124887690925427, 0.6828391734052112, 0.7825696316262354, 0.637915543575921, 0.6792452830188679, 0.7924528301886793, 0.683737646001797, 0.8194070080862533, 0.7187780772686433, 0.7205750224618149, 0.8265947888589398, 0.6990116801437556, 0.8014375561545373, 0.7547169811320755, 0.8203054806828391, 0.7457322551662174, 0.7601078167115903, 0.6522911051212938, 0.825696316262354, 0.7897574123989218, 0.734052111410602, 0.7259658580413297, 0.8176100628930818, 0.7394429469901168, 0.5884995507637018, 0.7547169811320755, 0.7277628032345014, 0.7690925426774483, 0.6648697214734951, 0.5911949685534591, 0.7223719676549866, 0.5444743935309974, 0.6873315363881402, 0.6684636118598383, 0.7744833782569631, 0.6594788858939802, 0.7807726864330637, 0.5867026055705301, 0.7726864330637916, 0.7538185085354897, 0.6801437556154537, 0.8517520215633423, 0.9577717879604672, 0.6990116801437556, 0.6190476190476191, 0.6729559748427673, 0.7654986522911051, 0.7475292003593891, 0.7726864330637916, 0.5606469002695418, 0.6630727762803235, 0.8023360287511231, 0.7753818508535489, 0.6963162623539982, 0.6594788858939802, 0.7286612758310872, 0.550763701707098, 0.5965858041329739, 0.8481581311769991, 0.6792452830188679, 0.6127583108715184, 0.6819407008086253, 0.701707097933513, 0.6639712488769093, 0.6729559748427673, 0.8697214734950584, 0.7439353099730458, 0.6442048517520216, 0.5813117699910153, 0.6244384546271339, 0.8580413297394429, 0.6154537286612758, 0.7151841868823001, 0.6675651392632524, 0.7268643306379156, 0.7538185085354897, 0.6424079065588499, 0.7115902964959568, 0.5759209344115005, 0.6675651392632524, 0.7044025157232704, 0.655884995507637, 0.6846361185983828, 0.7250673854447439, 0.6675651392632524, 0.7978436657681941, 0.7026055705300989, 0.6981132075471698, 0.6531895777178796, 0.77088948787062, 0.6621743036837376, 0.6019766397124887, 0.5840071877807727, 0.6073674752920036, 0.6477987421383647, 0.7601078167115903, 0.6711590296495957, 0.7807726864330637, 0.5929919137466307, 0.8068283917340521, 0.706199460916442, 0.6451033243486074, 0.6981132075471698, 0.6370170709793351, 0.5876010781671159, 0.6738544474393531, 0.5714285714285714, 0.7070979335130279, 0.6945193171608266, 0.6019766397124887, 0.8283917340521114, 0.8328840970350404, 0.6424079065588499, 0.6361185983827493, 0.6873315363881402, 0.6900269541778976, 0.7403414195867026, 0.6756513926325247, 0.7646001796945193, 0.6226415094339622, 0.633423180592992, 0.7160826594788859, 0.6999101527403414, 0.7735849056603774, 0.6163522012578616, 0.6442048517520216, 0.7942497753818508, 0.5858041329739443, 0.5417789757412399, 0.6990116801437556, 0.601078167115903, 0.6900269541778976, 0.6675651392632524, 0.6316262353998203, 0.6963162623539982, 0.7358490566037735, 0.531895777178796, 0.8571428571428571, 0.7601078167115903, 0.7142857142857143, 0.5426774483378257, 0.6765498652291105, 0.7654986522911051, 0.7789757412398922, 0.8409703504043127, 0.7699910152740341, 0.8122192273135669, 0.5669362084456424, 0.7601078167115903, 0.6316262353998203, 0.7619047619047619, 0.766397124887691, 0.6747529200359389, 0.6037735849056604, 0.7502246181491464, 0.7466307277628033, 0.6217430368373764, 0.7277628032345014, 0.7610062893081762, 0.6630727762803235, 0.6936208445642408, 0.6612758310871518, 0.6963162623539982, 0.6765498652291105, 0.6855345911949685, 0.7412398921832885, 0.6918238993710691, 0.6828391734052112, 0.7403414195867026, 0.6936208445642408, 0.692722371967655, 0.651392632524708, 0.7079964061096137, 0.8149146451033243, 0.5965858041329739, 0.5893980233602875, 0.6540880503144654, 0.8014375561545373, 0.6037735849056604, 0.6900269541778976, 0.5938903863432166, 0.7987421383647799, 0.5768194070080862, 0.6451033243486074, 0.6891284815813118, 0.8427672955974843, 0.7834681042228212, 0.756513926325247, 0.6271338724168913, 0.8436657681940701, 0.784366576819407, 0.6451033243486074, 0.766397124887691, 0.6433063791554358, 0.766397124887691, 0.710691823899371, 0.6064690026954178, 0.6738544474393531, 0.7259658580413297, 0.7313566936208445, 0.6154537286612758, 0.6307277628032345, 0.564240790655885, 0.660377358490566, 0.7699910152740341, 0.605570530098832, 0.577717879604672, 0.6477987421383647, 0.6406109613656783, 0.5588499550763701, 0.6567834681042228, 0.6477987421383647, 0.6343216531895777, 0.6388140161725068, 0.7547169811320755, 0.8337825696316262, 0.633423180592992, 0.6909254267744834, 0.7169811320754716, 0.6073674752920036, 0.6711590296495957, 0.6289308176100629, 0.6990116801437556, 0.6792452830188679, 0.6756513926325247, 0.49595687331536387, 0.6046720575022462, 0.6675651392632524, 0.6136567834681043, 0.6262353998203055, 0.5381850853548967, 0.6657681940700808, 0.5956873315363881, 0.7178796046720575, 0.6999101527403414, 0.6451033243486074, 0.6810422282120395, 0.710691823899371, 0.6693620844564241, 0.793351302785265, 0.7592093441150045, 0.7690925426774483, 0.6747529200359389, 0.5884995507637018, 0.8014375561545373, 0.7133872416891285, 0.7367475292003594, 0.6208445642407907, 0.5813117699910153, 0.6693620844564241, 0.7744833782569631, 0.6747529200359389, 0.5588499550763701, 0.6918238993710691, 0.756513926325247, 0.7035040431266847, 0.7448337825696316, 0.8077268643306379, 0.6235399820305481, 0.6585804132973945, 0.7942497753818508, 0.6495956873315364, 0.6316262353998203, 0.6235399820305481, 0.6621743036837376, 0.6073674752920036, 0.7349505840071878, 0.7870619946091644, 0.610062893081761, 0.7610062893081762, 0.6433063791554358, 0.7026055705300989, 0.4716981132075472, 0.5624438454627134, 0.6136567834681043, 0.6576819407008087, 0.6442048517520216, 0.6477987421383647, 0.5696316262353999, 0.7349505840071878, 0.5121293800539084, 0.655884995507637, 0.6325247079964061, 0.568733153638814, 0.706199460916442, 0.5813117699910153, 0.688230008984726, 0.5804132973944295, 0.6091644204851752, 0.6531895777178796, 0.6477987421383647, 0.7250673854447439, 0.577717879604672, 0.7304582210242587, 0.6684636118598383, 0.6495956873315364, 0.7133872416891285, 0.7448337825696316, 0.637915543575921, 0.5974842767295597, 0.6936208445642408, 0.7124887690925427, 0.7538185085354897, 0.655884995507637, 0.6666666666666666, 0.6747529200359389, 0.7735849056603774, 0.6531895777178796, 0.7304582210242587, 0.816711590296496, 0.5858041329739443, 0.6037735849056604, 0.6567834681042228, 0.6370170709793351, 0.5588499550763701, 0.8140161725067385, 0.6756513926325247, 0.7520215633423181, 0.793351302785265, 0.6729559748427673, 0.6981132075471698, 0.550763701707098, 0.5723270440251572, 0.7133872416891285, 0.5831087151841868, 0.6783468104222821, 0.4995507637017071, 0.5902964959568733, 0.6522911051212938, 0.7277628032345014, 0.6693620844564241, 0.7699910152740341, 0.6630727762803235, 0.660377358490566, 0.6738544474393531, 0.7879604672057502, 0.6190476190476191, 0.6316262353998203, 0.6999101527403414, 0.6900269541778976, 0.6801437556154537, 0.6352201257861635, 0.7744833782569631, 0.6316262353998203, 0.6540880503144654, 0.6972147349505841, 0.6244384546271339, 0.7277628032345014, 0.7160826594788859, 0.7466307277628033, 0.6756513926325247, 0.6028751123090745, 0.6936208445642408, 0.5615453728661276, 0.6963162623539982, 0.6729559748427673, 0.6442048517520216, 0.6954177897574124, 0.6828391734052112, 0.701707097933513, 0.8122192273135669, 0.5849056603773585, 0.7942497753818508, 0.734052111410602, 0.779874213836478, 0.6217430368373764, 0.6702605570530099, 0.6531895777178796, 0.7475292003593891, 0.7601078167115903, 0.6981132075471698, 0.7026055705300989, 0.766397124887691, 0.7035040431266847, 0.7322551662174304, 0.7861635220125787, 0.7996406109613656, 0.5831087151841868, 0.6612758310871518, 0.628032345013477, 0.6594788858939802, 0.7457322551662174, 0.5983827493261455, 0.5858041329739443, 0.6693620844564241, 0.6747529200359389, 0.6972147349505841, 0.6891284815813118, 0.637915543575921, 0.5741239892183289, 0.6154537286612758, 0.6846361185983828, 0.6235399820305481, 0.7448337825696316, 0.5705300988319856, 0.6864330637915543, 0.5148247978436657, 0.7771787960467206, 0.7115902964959568, 0.6702605570530099, 0.6442048517520216, 0.710691823899371, 0.6217430368373764, 0.7637017070979335, 0.555256064690027, 0.6531895777178796, 0.6900269541778976, 0.7331536388140162, 0.6612758310871518, 0.7160826594788859, 0.6792452830188679, 0.6037735849056604, 0.6909254267744834, 0.6217430368373764, 0.7026055705300989, 0.6495956873315364, 0.7097933513027853, 0.7160826594788859, 0.7115902964959568, 0.6783468104222821, 0.7807726864330637, 0.8203054806828391, 0.5768194070080862, 0.7035040431266847, 0.5525606469002695, 0.577717879604672, 0.5750224618149147, 0.6271338724168913, 0.7044025157232704, 0.8176100628930818, 0.633423180592992, 0.6172506738544474, 0.655884995507637, 0.6226415094339622, 0.7654986522911051, 0.7053009883198562, 0.6999101527403414, 0.6199460916442049, 0.7771787960467206, 0.7097933513027853, 0.7115902964959568, 0.7376460017969452, 0.7205750224618149, 0.7681940700808625, 0.701707097933513, 0.6190476190476191, 0.6873315363881402, 0.6522911051212938, 0.6091644204851752, 0.5983827493261455, 0.573225516621743, 0.738544474393531, 0.6909254267744834, 0.6235399820305481, 0.7241689128481581, 0.6217430368373764, 0.6343216531895777, 0.7268643306379156, 0.6163522012578616, 0.6972147349505841, 0.6226415094339622, 0.6666666666666666, 0.6424079065588499, 0.7205750224618149, 0.7376460017969452, 0.605570530098832, 0.5876010781671159, 0.8930817610062893, 0.5094339622641509, 0.6460017969451932, 0.6486972147349506, 0.5983827493261455, 0.633423180592992, 0.7115902964959568, 0.8095238095238095, 0.5256064690026954, 0.6352201257861635, 0.5902964959568733, 0.6585804132973945, 0.6720575022461814, 0.6612758310871518, 0.6549865229110512, 0.6289308176100629, 0.6451033243486074, 0.6397124887690926, 0.7681940700808625, 0.6846361185983828, 0.7834681042228212, 0.6810422282120395, 0.8319856244384546, 0.7079964061096137, 0.7008086253369272, 0.6828391734052112, 0.7520215633423181, 0.6001796945193172, 0.6621743036837376, 0.6945193171608266, 0.6082659478885895, 0.7520215633423181, 0.7313566936208445, 0.7475292003593891, 0.7538185085354897, 0.6226415094339622, 0.7394429469901168, 0.7448337825696316, 0.6352201257861635, 0.8238993710691824, 0.6486972147349506, 0.6531895777178796, 0.6019766397124887, 0.6442048517520216, 0.7097933513027853, 0.7637017070979335, 0.7070979335130279, 0.7879604672057502, 0.5534591194968553, 0.6460017969451932, 0.6972147349505841, 0.6747529200359389, 0.5498652291105122, 0.6666666666666666, 0.564240790655885, 0.5974842767295597, 0.7403414195867026, 0.6639712488769093, 0.7322551662174304, 0.5902964959568733, 0.8247978436657682, 0.6019766397124887, 0.6073674752920036, 0.7097933513027853, 0.6504941599281222, 0.706199460916442, 0.6783468104222821, 0.5786163522012578, 0.6792452830188679, 0.564240790655885, 0.7214734950584007, 0.710691823899371, 0.7115902964959568, 0.6945193171608266, 0.8436657681940701, 0.6693620844564241, 0.7088948787061995, 0.7133872416891285, 0.7493261455525606, 0.7403414195867026, 0.7169811320754716, 0.6486972147349506, 0.7897574123989218, 0.7187780772686433, 0.6495956873315364, 0.6001796945193172, 0.7349505840071878, 0.6567834681042228, 0.6828391734052112, 0.7223719676549866, 0.5444743935309974, 0.7053009883198562, 0.6639712488769093, 0.6864330637915543, 0.628032345013477, 0.6406109613656783, 0.7762803234501348, 0.7142857142857143, 0.651392632524708, 0.6082659478885895, 0.5920934411500449, 0.6549865229110512, 0.6945193171608266, 0.706199460916442, 0.5884995507637018, 0.5381850853548967, 0.5238095238095238, 0.756513926325247, 0.6451033243486074, 0.6316262353998203, 0.6945193171608266, 0.6891284815813118, 0.5543575920934412, 0.6639712488769093, 0.5660377358490566, 0.6486972147349506, 0.7259658580413297, 0.6675651392632524, 0.6738544474393531, 0.6469002695417789, 0.6046720575022462, 0.6019766397124887, 0.7358490566037735, 0.5489667565139263, 0.7053009883198562, 0.6109613656783468, 0.8023360287511231, 0.6477987421383647, 0.5723270440251572, 0.5902964959568733, 0.527403414195867, 0.7322551662174304, 0.6307277628032345, 0.6792452830188679, 0.6747529200359389, 0.6163522012578616, 0.5462713387241689, 0.688230008984726, 0.5822102425876011, 0.7960467205750225, 0.9155435759209344, 0.7232704402515723, 0.6316262353998203, 0.706199460916442, 0.6307277628032345, 0.6019766397124887, 0.5840071877807727, 0.8490566037735849, 0.601078167115903, 0.6181491464510332, 0.6154537286612758, 0.6531895777178796, 0.6486972147349506, 0.7295597484276729, 0.7070979335130279, 0.6990116801437556, 0.4501347708894879, 0.5534591194968553, 0.651392632524708, 0.4833782569631626, 0.5480682839173405, 0.7735849056603774, 0.601078167115903, 0.7493261455525606, 0.5831087151841868, 0.6954177897574124, 0.6495956873315364, 0.47079964061096136, 0.633423180592992, 0.7556154537286612, 0.7556154537286612, 0.5669362084456424, 0.6621743036837376, 0.5750224618149147, 0.5947888589398024, 0.6217430368373764, 0.504941599281222, 0.6235399820305481, 0.6918238993710691, 0.710691823899371, 0.6145552560646901, 0.7367475292003594, 0.6846361185983828, 0.6873315363881402, 0.6082659478885895]</t>
+          <t>[75.56076388888889, 76.25789141414141, 75.55366161616162, 76.15356691919192, 76.31076388888889, 76.95833333333333, 77.01309974747475, 78.05997474747475, 77.96906565656566, 77.50047348484848, 78.43702651515152, 77.65877525252525, 77.47332702020202, 77.3309659090909, 77.29592803030303, 77.17029671717172, 77.04150883838383, 75.80839646464646, 76.54024621212122, 75.99842171717172, 70.70075757575758, 70.90640782828282, 70.64851641414141, 70.74668560606061, 70.8481691919192, 71.45075757575758, 72.2293244949495, 74.57559974747475, 72.89883207070707, 74.20233585858585, 73.57733585858585, 73.53582702020202, 73.24936868686869, 74.2159090909091, 72.9559659090909, 72.80997474747475, 73.25820707070707, 73.63099747474747, 73.26025883838383, 74.04292929292929, 73.74084595959596, 71.74968434343434, 74.19318181818181, 73.32039141414141, 73.54324494949495, 74.55445075757575, 74.19491792929293, 73.65104166666667, 72.7405303030303, 72.90546085858585, 73.0, 73.36284722222223, 74.22206439393939, 74.03693181818181, 73.90593434343434, 74.48421717171718, 74.31123737373737, 75.6137941919192, 75.05176767676768, 74.6300505050505, 75.33822601010101, 74.34943181818181, 73.89804292929293, 75.41887626262626, 75.31423611111111, 74.76136363636364, 74.60337752525253, 75.18102904040404, 76.0719696969697, 75.05618686868686, 75.62026515151516, 75.63289141414141, 75.54229797979798, 74.18955176767676, 74.80397727272727, 75.01215277777777, 74.3041351010101, 75.4168244949495, 75.76294191919192, 74.85195707070707, 76.1740845959596, 76.13320707070707, 75.51799242424242, 75.6657196969697, 76.4659090909091, 74.97190656565657, 74.88999368686869, 75.43781565656566, 75.7522095959596, 73.87294823232324, 75.5831755050505, 75.35874368686869, 74.69791666666667, 74.66824494949495, 74.87847222222223, 75.38794191919192, 74.01089015151516, 75.89109848484848, 74.6606691919192, 74.92566287878788, 74.36489898989899, 75.28488005050505, 75.83017676767676, 75.02162247474747, 75.0915404040404, 74.30492424242425, 74.85416666666667, 75.26183712121212, 75.75, 74.81802398989899, 75.39756944444444, 74.76152146464646, 74.08238636363636, 73.93008207070707, 75.11900252525253, 75.92566287878788, 75.68260732323232, 74.81360479797979, 75.0737058080808, 76.21511994949495, 75.47032828282828, 75.61426767676768, 76.82607323232324, 78.14725378787878, 76.82623106060606, 75.59943181818181, 76.40325126262626, 76.74289772727273, 76.60416666666667, 77.33333333333333, 76.16998106060606, 76.77162247474747, 77.21701388888889, 75.20012626262626, 76.53235479797979, 76.77793560606061, 75.44002525252525, 74.45486111111111, 74.54150883838383, 75.05492424242425, 75.28235479797979, 75.5875946969697, 76.02272727272727, 74.98595328282828, 74.39046717171718, 74.93939393939394, 74.55571338383838, 74.5072601010101, 75.13352272727273, 74.8778409090909, 75.53787878787878, 74.28914141414141, 75.54387626262626, 75.45991161616162, 76.04229797979798, 75.94349747474747, 76.25031565656566, 75.18118686868686, 74.44839015151516, 75.11268939393939, 75.89946338383838, 76.07386363636364, 74.89393939393939, 74.11584595959596, 74.75378787878788, 76.11489898989899, 74.77083333333333, 75.10763888888889, 75.36726641414141, 74.86521464646465, 75.25015782828282, 74.54292929292929, 74.96196338383838, 74.03661616161617, 74.54892676767676, 75.70328282828282, 74.82844065656566, 75.55429292929293, 75.93150252525253, 74.51515151515152, 75.47111742424242, 74.71212121212122, 75.82023358585859, 75.34217171717172, 75.56912878787878, 75.8030303030303, 75.7990845959596, 75.92881944444444, 74.92171717171718, 74.80366161616162, 74.69176136363636, 75.03614267676768, 73.51893939393939, 74.22332702020202, 74.2544191919192, 74.85022095959596, 74.38162878787878, 74.64804292929293, 74.98595328282828, 74.42582070707071, 75.46511994949495, 74.40277777777777, 75.53282828282828, 75.1144255050505, 74.84643308080808, 74.8705808080808, 75.30460858585859, 74.58491161616162, 75.2449494949495, 75.13257575757575, 73.70328282828282, 74.78993055555556, 75.54577020202021, 75.7103851010101, 75.50410353535354, 76.19286616161617, 76.33601641414141, 75.88636363636364, 75.04655934343434, 76.24826388888889, 75.23753156565657, 74.92929292929293, 76.27714646464646, 75.43371212121212, 76.21006944444444, 75.64756944444444, 73.57575757575758, 74.5552398989899, 74.69507575757575, 74.7215909090909, 74.13399621212122, 74.21417297979798, 74.74147727272727, 74.57212752525253, 73.16208964646465, 74.70217803030303, 74.15561868686869, 75.3147095959596, 74.68434343434343, 73.21164772727273, 72.37547348484848, 72.80492424242425, 73.8488005050505, 72.98232323232324, 72.83791035353535, 73.04324494949495, 73.64977904040404, 72.8615845959596, 73.53156565656566, 74.0686553030303, 74.08238636363636, 72.75757575757575, 72.71180555555556, 73.47853535353535, 73.06628787878788, 73.21354166666667, 73.83128156565657, 73.25236742424242, 73.02825126262626, 73.3219696969697, 73.06360479797979, 72.86489898989899, 73.52982954545455, 73.62815656565657, 72.96685606060606, 73.99684343434343, 73.97395833333333, 73.18860479797979, 73.24542297979798, 72.6428345959596, 72.52430555555556, 73.31265782828282, 73.2768308080808, 73.97127525252525, 72.71732954545455, 73.35243055555556, 72.70249368686869, 72.14630681818181, 72.83017676767676, 71.59911616161617, 72.49242424242425, 71.90388257575758, 72.80366161616162, 73.50426136363636, 74.21622474747475, 73.13604797979798, 72.7990845959596, 73.24652777777777, 72.93592171717172, 72.4487058080808, 72.7946654040404, 72.1624053030303, 72.02730429292929, 71.44460227272727, 71.4955808080808, 72.05918560606061, 73.09753787878788, 72.20470328282828, 72.2750946969697, 72.67297979797979, 72.91635101010101, 72.30997474747475, 72.61631944444444, 71.35921717171718, 73.67724116161617, 71.82386363636364, 71.71070075757575, 72.48516414141415, 74.05492424242425, 73.7561553030303, 71.57780934343434, 72.25236742424242, 72.07954545454545, 71.25110479797979, 71.93828914141415, 72.60164141414141, 72.71748737373737, 72.70785984848484, 71.70233585858585, 72.19649621212122, 73.40151515151516, 73.88020833333333, 72.69554924242425, 72.30082070707071, 71.72301136363636, 71.00852272727273, 71.22174873737374, 72.49731691919192, 71.92503156565657, 71.46480429292929, 71.73311237373737, 72.59469696969697, 72.70785984848484, 73.03235479797979, 71.9106691919192, 72.42297979797979, 72.38541666666667, 72.26688762626263, 71.64299242424242, 71.96953914141415, 73.14204545454545, 72.62310606060606, 73.51089015151516, 72.4771148989899, 73.52888257575758, 73.0596590909091, 71.71054292929293, 71.24700126262626, 71.19839015151516, 72.06423611111111, 71.92881944444444, 72.33901515151516, 71.40372474747475, 72.52888257575758, 72.05003156565657, 73.79655934343434, 71.62863005050505, 71.3833648989899, 70.90041035353535, 70.93892045454545, 71.04782196969697, 71.7684659090909, 71.17061237373737, 71.31313131313131, 70.70628156565657, 71.38210227272727, 72.07780934343434, 71.28535353535354, 71.8080808080808, 72.62089646464646, 72.05287247474747, 72.78614267676768, 72.42282196969697, 73.51404671717172, 73.02856691919192, 73.30760732323232, 73.28093434343434, 72.49084595959596, 73.23800505050505, 72.6377840909091, 72.29671717171718, 71.61742424242425, 71.62799873737374, 71.33996212121212, 72.27493686868686, 72.26704545454545, 72.02351641414141, 72.40056818181819, 72.1987058080808, 72.06628787878788, 72.40546085858585, 72.67203282828282, 73.23863636363636, 72.31265782828282, 72.22411616161617, 72.26862373737374, 71.91335227272727, 72.93939393939394, 73.39299242424242, 72.47648358585859, 72.32496843434343, 72.43986742424242, 70.62515782828282, 70.93513257575758, 71.54261363636364, 71.41303661616162, 71.57149621212122, 71.64125631313131, 71.71811868686869, 72.24416035353535, 71.45249368686869, 71.65703914141415, 71.45138888888889, 71.34927398989899, 71.83948863636364, 71.56597222222223, 72.19791666666667, 71.23516414141415, 71.18986742424242, 70.51751893939394, 70.78061868686869, 70.89441287878788, 70.32828282828282, 70.58854166666667, 71.34785353535354, 71.12436868686869, 71.13904671717172, 70.98705808080808, 71.36063762626263, 71.65640782828282, 71.57449494949495, 71.24226641414141, 71.70233585858585, 71.71748737373737, 70.92140151515152, 71.02256944444444, 71.17897727272727, 70.99195075757575, 71.95296717171718, 72.05871212121212, 72.13147095959596, 71.51388888888889, 71.26530934343434, 72.04845328282828, 71.57402146464646, 71.78188131313131, 71.32449494949495, 72.24605429292929, 71.88257575757575, 72.32386363636364, 71.95943813131314, 71.71322601010101, 71.34327651515152, 70.79829545454545, 70.97048611111111, 70.8772095959596, 72.16919191919192, 71.84311868686869, 71.50789141414141, 71.68339646464646, 71.44618055555556, 71.61111111111111, 71.66650883838383, 71.50678661616162, 70.36332070707071, 71.21417297979798, 71.67676767676768, 71.70896464646465, 70.95454545454545, 71.77935606060606, 70.37831439393939, 71.23690025252525, 71.59185606060606, 71.67029671717172, 71.60069444444444, 72.70391414141415, 72.31723484848484, 72.54024621212122, 71.96401515151516, 72.81581439393939, 72.07007575757575, 72.1322601010101, 71.51152146464646, 70.90261994949495, 70.75994318181819, 71.14551767676768, 70.98279671717172, 72.4190340909091, 72.62736742424242, 71.35337752525253, 71.1428345959596, 70.86016414141415, 70.94760101010101, 70.92597853535354, 71.11079545454545, 72.18592171717172, 69.93118686868686, 70.89441287878788, 71.28219696969697, 71.7634154040404, 71.5647095959596, 71.97506313131314, 71.89693813131314, 71.92960858585859, 70.88652146464646, 71.43860479797979, 71.3521148989899, 71.10527146464646, 71.33664772727273, 71.08049242424242, 70.62642045454545, 71.66824494949495, 71.05476641414141, 71.24005681818181, 71.78598484848484, 71.68844696969697, 70.62200126262626, 70.92345328282828, 71.73974116161617, 71.11363636363636, 70.95391414141415, 71.31360479797979, 72.50883838383838, 72.24021464646465, 71.92582070707071, 71.38573232323232, 70.4196654040404, 70.30429292929293, 70.36142676767676, 71.22964015151516, 70.69917929292929, 69.94239267676768, 69.87452651515152, 70.34548611111111, 71.08128156565657, 70.19649621212122, 70.81392045454545, 70.4887941919192, 71.0334595959596, 70.9190340909091, 71.29861111111111, 71.35558712121212, 71.27809343434343, 71.10179924242425, 71.61300505050505, 71.20138888888889, 71.42171717171718, 70.02477904040404, 70.4168244949495, 71.3811553030303, 71.43276515151516, 71.07212752525253, 71.01862373737374, 71.41508838383838, 70.76704545454545, 71.49400252525253, 70.10606060606061, 70.47269570707071, 70.97474747474747, 71.40309343434343, 71.93386994949495, 71.88052398989899, 70.76672979797979, 70.20059974747475, 71.23500631313131, 72.36979166666667, 70.57244318181819, 69.37847222222223, 71.21243686868686, 70.6155303030303, 70.68008207070707, 70.55823863636364, 70.38099747474747, 70.41051136363636, 70.87373737373737, 71.36174242424242, 70.46906565656566, 72.30066287878788, 71.92392676767676, 70.59785353535354, 71.73690025252525, 71.44602272727273, 70.61458333333333, 70.85827020202021, 69.77272727272727, 70.73469065656566, 70.6115845959596, 70.5440340909091, 69.64330808080808, 70.54040404040404, 69.72948232323232, 69.6606691919192, 70.33506944444444, 70.04892676767676, 70.66619318181819, 70.1300505050505, 70.14520202020202, 69.72585227272727, 70.59280303030303, 70.07922979797979, 69.62136994949495, 69.32670454545455, 69.47585227272727, 69.28156565656566, 69.52998737373737, 69.77809343434343, 70.24037247474747, 69.69113005050505, 70.5653409090909, 69.72885101010101, 70.67850378787878, 69.70849116161617, 69.54876893939394, 68.42645202020202, 68.99684343434343, 69.82765151515152, 70.43781565656566, 69.95659722222223, 69.45896464646465, 70.11805555555556, 69.66477272727273, 68.93339646464646, 69.07354797979798, 67.45722853535354, 68.75236742424242, 68.29987373737374, 69.07481060606061, 68.43039772727273, 69.45833333333333, 68.1646148989899, 68.63431186868686, 68.44049873737374, 67.80003156565657, 67.44649621212122, 68.38746843434343, 68.39551767676768, 69.28866792929293, 68.43513257575758, 69.01672979797979, 68.74463383838383, 68.34375, 67.55034722222223, 68.72506313131314, 68.06581439393939, 68.57244318181819, 69.83017676767676, 69.06265782828282, 69.64804292929293, 69.67376893939394, 69.59027777777777, 70.0356691919192, 69.40972222222223, 67.84548611111111, 69.08554292929293, 69.34453914141415, 68.64962121212122, 69.14930555555556, 68.39172979797979, 67.97174873737374, 67.5965909090909, 67.86174242424242, 69.2634154040404, 68.63794191919192, 68.63731060606061, 68.87484217171718, 68.64236111111111, 68.7159090909091, 68.55271464646465, 69.32481060606061, 68.47553661616162, 68.23563762626263, 69.14930555555556, 68.4190340909091, 68.38478535353535, 67.80681818181819, 67.31581439393939, 67.69286616161617, 68.21464646464646, 67.29813762626263, 68.10479797979798, 69.33065025252525, 69.51041666666667, 67.55934343434343, 68.20217803030303, 67.6690340909091, 68.15230429292929, 68.25868055555556, 68.51751893939394, 68.49479166666667, 68.42534722222223, 68.4938446969697, 69.1540404040404, 68.06581439393939, 69.24589646464646, 69.31676136363636, 69.49605429292929, 68.00599747474747, 68.45170454545455, 69.04750631313131, 69.37247474747475, 68.7594696969697, 68.57481060606061, 69.36079545454545, 68.0385101010101, 68.68797348484848, 67.44444444444444, 68.62452651515152, 68.31313131313131, 67.79008838383838, 67.26183712121212, 68.55397727272727, 67.62121212121212, 68.17850378787878, 68.12326388888889, 67.39535984848484, 68.82765151515152, 68.78866792929293, 68.20138888888889, 68.24652777777777, 68.17282196969697, 67.67645202020202, 68.38415404040404, 68.07765151515152, 68.98958333333333, 67.36947601010101, 67.94018308080808, 68.00899621212122, 68.59769570707071, 68.08270202020202, 67.56297348484848, 67.55429292929293, 67.26089015151516, 66.99968434343434, 67.6780303030303, 68.08712121212122, 67.39693813131314, 67.99084595959596, 67.85795454545455, 67.9487058080808, 68.00662878787878, 68.38494318181819, 68.37468434343434, 68.10006313131314, 67.78693181818181, 67.9971590909091, 69.1333648989899, 68.56597222222223, 68.53977272727273, 68.32654671717172, 66.91287878787878, 67.7209595959596, 67.73405934343434, 67.88083964646465, 66.99810606060606, 67.65246212121212, 68.89930555555556, 67.49952651515152, 68.38415404040404, 66.71054292929293, 65.70675505050505, 67.04529671717172, 66.64362373737374, 68.1613005050505, 67.69128787878788, 68.28424873737374, 68.08854166666667, 67.92171717171718, 67.6987058080808, 68.00157828282828, 67.29782196969697, 66.49447601010101, 67.74747474747475, 66.35969065656566, 67.22743055555556, 66.11947601010101, 67.25899621212122, 66.72679924242425, 67.45296717171718, 67.62610479797979, 67.40498737373737, 68.16934974747475, 67.18986742424242, 67.69618055555556, 68.05176767676768, 67.52035984848484, 67.84122474747475, 69.22080176767676, 68.31739267676768, 68.17376893939394, 68.94428661616162, 68.86174242424242, 67.93860479797979, 67.77130681818181, 66.73279671717172, 66.66035353535354, 66.87626262626263, 67.11174242424242, 66.41414141414141, 67.15104166666667, 66.58696338383838, 65.97443181818181, 67.6830808080808, 68.44002525252525, 67.34075126262626, 68.73895202020202, 67.27083333333333, 67.38746843434343, 67.49463383838383, 67.55271464646465, 67.76499368686869, 67.28708964646465, 66.11079545454545, 67.03866792929293, 67.97348484848484, 66.00789141414141, 67.7896148989899, 66.68592171717172, 66.47127525252525, 67.54924242424242, 67.05366161616162, 66.55018939393939, 67.67787247474747, 67.18386994949495, 68.4469696969697, 68.1188446969697, 67.32638888888889, 67.22695707070707, 67.1897095959596, 67.07244318181819, 66.77367424242425, 67.78030303030303, 68.49684343434343, 67.61505681818181, 67.34217171717172, 66.32575757575758, 66.9949494949495, 67.01799242424242, 66.79324494949495, 67.63794191919192, 66.84706439393939, 67.02114898989899, 66.8153409090909, 66.87752525252525, 67.38952020202021, 68.07607323232324, 67.3342803030303, 67.31881313131314, 67.80618686868686, 66.92881944444444, 66.72458964646465, 67.4971590909091, 67.06849747474747, 66.8153409090909, 67.09580176767676, 67.8481691919192, 67.1919191919192, 66.27430555555556, 66.63794191919192, 66.69381313131314, 66.87357954545455, 66.35669191919192, 66.14614898989899, 65.64109848484848, 65.8230744949495, 66.7075441919192, 67.14946338383838, 67.91729797979798, 67.78440656565657, 66.43166035353535, 66.00915404040404, 66.3096590909091, 67.2750946969697, 66.79498106060606, 66.04419191919192, 66.30997474747475, 66.77856691919192, 68.17250631313131, 68.07828282828282, 67.78109217171718, 67.96969696969697, 67.7165404040404, 67.46417297979798, 67.22727272727273, 68.15814393939394, 67.26010101010101, 67.15672348484848, 67.56739267676768, 67.58364898989899, 67.51862373737374, 68.17234848484848, 67.6903409090909, 68.19539141414141, 67.16635101010101, 67.20059974747475, 66.80445075757575, 67.60258838383838, 67.69049873737374, 66.67645202020202, 67.20675505050505, 67.38952020202021, 67.20943813131314, 67.55082070707071, 67.92897727272727, 67.5686553030303, 66.77114898989899, 65.96243686868686, 66.90198863636364, 66.50047348484848, 66.93923611111111, 66.80492424242425, 67.1344696969697, 67.48090277777777, 67.58806818181819, 66.91193181818181, 68.39741161616162, 66.80918560606061, 66.17140151515152, 67.29655934343434, 66.56455176767676, 66.95628156565657, 66.08806818181819, 66.17787247474747, 66.12626262626263, 65.26862373737374, 65.64883207070707, 66.20391414141415, 66.2990845959596, 67.15514520202021, 65.28156565656566, 65.11126893939394, 65.7438446969697, 66.75363005050505, 66.79624368686869, 66.69018308080808, 67.19349747474747, 68.00189393939394, 67.07260101010101, 66.86332070707071, 65.63541666666667, 65.64488636363636, 65.90751262626263, 65.3488005050505, 66.30902777777777, 66.73674242424242, 65.88936237373737, 66.21085858585859, 65.6115845959596, 65.66840277777777, 66.57733585858585, 66.53125, 66.09453914141415, 65.47916666666667, 66.95991161616162, 67.13636363636364, 66.47964015151516, 67.54198232323232, 66.04561237373737, 66.56265782828282, 65.72979797979798, 66.64662247474747, 66.0893308080808, 66.27872474747475, 66.28125, 66.32702020202021, 66.9894255050505, 65.859375, 67.13178661616162, 65.38952020202021, 65.54813762626263, 66.23705808080808, 64.61253156565657, 65.71638257575758, 65.57118055555556, 66.49826388888889, 66.64914772727273, 66.71385732323232, 66.13052398989899, 65.51325757575758, 66.11568813131314, 65.98847853535354, 66.25173611111111, 66.29434974747475, 65.92597853535354, 66.66792929292929, 65.98532196969697, 66.07907196969697, 65.53898358585859, 66.25426136363636, 66.33712121212122, 65.96196338383838, 65.140625, 66.3705808080808, 65.95186237373737, 65.890625, 65.29529671717172, 65.96985479797979, 66.06897095959596, 66.31407828282828, 65.5864898989899, 65.79987373737374, 66.625, 67.06439393939394, 67.17566287878788, 66.12610479797979, 66.58996212121212, 65.92613636363636, 65.92818813131314, 66.10527146464646, 65.88194444444444, 66.4971590909091, 66.78993055555556, 65.42203282828282, 63.80397727272727, 65.85290404040404, 66.93907828282828, 65.7092803030303, 65.47285353535354, 65.50268308080808, 65.07228535353535, 65.66098484848484, 64.91587752525253, 65.74510732323232, 65.65861742424242, 65.49652777777777, 65.57765151515152, 65.93418560606061, 66.69633838383838, 64.85511363636364, 65.18402777777777, 65.76641414141415, 66.87831439393939, 66.8197601010101, 66.23484848484848, 66.90861742424242, 67.03030303030303, 66.70991161616162, 65.86284722222223, 65.73674242424242, 65.74984217171718, 66.49794823232324, 65.37578914141415, 65.0178345959596, 65.92013888888889, 65.60574494949495, 66.60069444444444, 66.30508207070707, 65.84627525252525, 66.28077651515152, 65.25583964646465, 64.71354166666667, 66.66556186868686, 66.78330176767676, 66.09106691919192, 65.12136994949495, 65.45880681818181, 66.08696338383838, 66.04150883838383, 64.53377525252525, 66.4247159090909, 66.49905303030303, 66.81234217171718, 67.47743055555556, 66.29308712121212, 66.98595328282828, 67.18071338383838, 66.9135101010101, 65.9375, 66.6456755050505, 66.82702020202021, 66.83175505050505, 66.6696654040404, 67.08128156565657, 66.75078914141415, 65.98169191919192, 67.22585227272727, 66.44207702020202, 66.07149621212122, 65.92929292929293, 67.35921717171718, 66.59059343434343, 66.30839646464646, 65.29940025252525, 65.19760101010101, 66.86347853535354, 66.15356691919192, 66.41524621212122, 64.72127525252525, 65.00189393939394, 65.80097853535354, 65.47348484848484, 65.95296717171718, 66.00157828282828, 65.44049873737374, 65.59895833333333, 65.88983585858585, 65.89693813131314, 66.6925505050505, 66.95959595959596, 66.15388257575758, 66.7209595959596]</t>
         </is>
       </c>
       <c r="APK1" t="inlineStr">
         <is>
-          <t>[66.40806962025316, 67.1496835443038, 66.30395569620254, 66.8378164556962, 67.18971518987341, 67.85854430379747, 67.83449367088608, 68.57689873417722, 68.64462025316456, 67.88006329113924, 68.82199367088607, 68.1629746835443, 68.01566455696202, 67.9126582278481, 67.84825949367088, 67.99588607594937, 67.89572784810126, 66.42990506329114, 67.16645569620253, 66.83370253164557, 62.17025316455696, 62.85806962025316, 62.239715189873415, 62.57294303797468, 62.59762658227848, 63.042879746835446, 63.676582278481014, 65.86740506329114, 64.14762658227848, 65.39224683544303, 65.14715189873418, 64.98291139240506, 64.35205696202532, 65.37721518987341, 64.48955696202532, 64.18401898734177, 64.88924050632912, 64.82737341772152, 64.3625, 65.3129746835443, 64.90585443037975, 63.10348101265823, 65.38386075949367, 64.63132911392405, 64.83322784810126, 65.7998417721519, 65.44050632911393, 64.83401898734178, 63.976424050632914, 64.49050632911393, 64.23417721518987, 64.77373417721519, 65.37405063291139, 65.00854430379746, 65.07832278481013, 65.61518987341772, 65.53101265822785, 66.67911392405064, 65.9256329113924, 65.70680379746835, 66.3129746835443, 65.1873417721519, 64.76993670886075, 66.82753164556962, 66.2884493670886, 65.84161392405063, 65.9496835443038, 66.20822784810126, 67.20791139240507, 66.41661392405064, 66.64556962025317, 66.55886075949367, 66.59145569620253, 65.44066455696202, 66.17958860759494, 66.17642405063292, 65.51139240506329, 66.66155063291139, 66.69873417721519, 66.07389240506329, 67.19810126582279, 67.0118670886076, 66.36724683544304, 66.6121835443038, 67.42848101265822, 66.08212025316456, 65.95996835443037, 66.44857594936708, 66.56613924050633, 65.02674050632912, 66.64746835443037, 66.65237341772152, 65.6003164556962, 65.8118670886076, 65.96392405063291, 66.38955696202531, 65.13844936708861, 66.82389240506329, 65.77357594936709, 66.02167721518987, 65.44825949367089, 66.25174050632911, 66.66898734177215, 66.05332278481012, 66.20395569620253, 65.50854430379746, 65.96186708860759, 66.20158227848101, 66.77658227848102, 65.75174050632911, 66.28180379746836, 66.10079113924051, 65.4253164556962, 65.05268987341772, 66.11360759493671, 67.12911392405063, 66.49746835443038, 66.3003164556962, 66.29034810126582, 67.11898734177215, 66.62737341772151, 66.40886075949368, 67.82816455696202, 68.92674050632911, 67.82325949367089, 66.55142405063292, 67.05411392405064, 67.5248417721519, 67.4498417721519, 68.0742088607595, 67.09778481012658, 67.61977848101266, 67.88164556962025, 66.25253164556962, 67.47151898734177, 67.78623417721519, 66.52072784810126, 65.83433544303797, 65.54287974683544, 66.31550632911393, 66.35490506329114, 66.40632911392404, 67.03180379746836, 66.16170886075949, 65.49272151898734, 66.29177215189874, 65.90617088607596, 65.63987341772152, 66.4123417721519, 65.76914556962025, 66.33022151898734, 65.40553797468354, 66.32151898734178, 66.84778481012658, 67.07215189873418, 66.74018987341772, 67.03306962025316, 66.34683544303797, 65.5509493670886, 66.1495253164557, 66.89493670886075, 66.85142405063291, 66.04841772151899, 65.1242088607595, 65.69572784810127, 66.98259493670886, 65.65917721518987, 66.06962025316456, 66.60981012658227, 65.90490506329114, 66.36613924050633, 65.86534810126582, 65.93306962025316, 65.41566455696203, 65.71439873417721, 66.57784810126583, 65.86360759493671, 66.65632911392404, 67.06898734177216, 65.73876582278481, 66.25443037974684, 65.78449367088608, 66.71329113924051, 66.18876582278482, 66.37689873417722, 66.86012658227848, 66.73322784810127, 67.07025316455696, 66.20300632911392, 66.00395569620254, 65.88132911392405, 66.15632911392404, 64.74161392405064, 65.48670886075949, 65.2129746835443, 65.78117088607596, 65.49746835443038, 65.94018987341772, 65.99889240506329, 65.66060126582279, 66.55791139240506, 65.35553797468354, 66.70268987341773, 66.4118670886076, 65.7996835443038, 65.86977848101266, 66.44699367088607, 65.8120253164557, 66.10949367088608, 66.14477848101266, 65.17420886075949, 65.75996835443038, 66.59319620253164, 66.59667721518987, 66.51424050632912, 67.32863924050633, 67.35965189873417, 66.80332278481012, 66.18417721518988, 67.23971518987342, 66.29556962025316, 66.06756329113924, 67.31123417721518, 66.59731012658227, 67.20189873417722, 67.02310126582279, 64.85253164556963, 65.77768987341773, 65.59272151898735, 65.60632911392405, 65.26708860759494, 65.5245253164557, 65.8631329113924, 65.8363924050633, 64.47705696202532, 65.95743670886075, 65.21376582278481, 66.33132911392406, 65.61392405063292, 64.48560126582278, 63.689556962025314, 64.075, 65.09762658227848, 64.43987341772151, 63.876740506329114, 64.33512658227848, 64.56060126582278, 64.18401898734177, 64.4751582278481, 65.18591772151899, 65.16170886075949, 64.09287974683544, 63.79382911392405, 64.56946202531645, 64.30775316455696, 64.29272151898734, 65.32310126582279, 64.53259493670886, 64.06139240506329, 64.51882911392406, 64.19382911392405, 64.14477848101266, 64.88085443037974, 64.75933544303797, 64.29857594936709, 65.60237341772152, 65.26123417721519, 64.29161392405064, 64.43876582278482, 63.96060126582279, 63.83101265822785, 64.74572784810127, 64.62167721518988, 65.15237341772152, 63.69604430379747, 64.5386075949367, 63.84303797468355, 63.6617088607595, 64.03607594936709, 63.01471518987342, 63.832911392405066, 63.199683544303795, 63.98528481012658, 64.52990506329114, 65.36629746835443, 64.70791139240507, 64.16613924050633, 64.57832278481013, 63.95617088607595, 63.97373417721519, 64.41661392405064, 63.53512658227848, 63.51898734177215, 62.953006329113926, 62.8245253164557, 63.281803797468356, 64.34493670886076, 63.71898734177215, 63.546044303797466, 64.15569620253164, 64.21993670886076, 63.57848101265823, 64.27927215189874, 62.95886075949367, 65.0875, 63.40727848101266, 63.04335443037974, 63.68623417721519, 65.051582278481, 64.84319620253164, 62.95632911392405, 63.802215189873415, 63.35110759493671, 62.51867088607595, 63.24003164556962, 63.94050632911392, 64.01123417721519, 64.10822784810127, 63.14873417721519, 63.59367088607595, 64.81756329113924, 65.16962025316455, 63.95648734177215, 63.76946202531646, 63.17246835443038, 62.44541139240506, 62.68876582278481, 63.856645569620255, 63.4248417721519, 63.067879746835445, 63.39319620253165, 64.11439873417721, 64.03813291139241, 64.06091772151899, 63.46392405063291, 63.6507911392405, 63.79367088607595, 63.65205696202532, 63.210759493670885, 63.14319620253165, 64.59794303797469, 63.90648734177215, 64.68639240506329, 63.87642405063291, 64.59541139240507, 64.35379746835443, 63.125474683544304, 62.76534810126582, 62.69620253164557, 63.238132911392405, 63.53101265822785, 63.696835443037976, 62.73212025316456, 63.69746835443038, 63.4003164556962, 65.34256329113924, 62.807120253164555, 62.805221518987345, 62.1503164556962, 62.379430379746836, 62.36534810126582, 63.25237341772152, 62.602056962025316, 62.53876582278481, 62.251107594936705, 62.79462025316456, 63.28117088607595, 62.54636075949367, 63.33227848101266, 64.02246835443037, 63.42341772151899, 63.86455696202532, 63.72911392405063, 64.82863924050633, 64.0746835443038, 64.61740506329114, 64.53987341772152, 63.935759493670886, 64.71582278481013, 63.84794303797468, 63.87341772151899, 63.43433544303797, 63.1, 62.430221518987345, 63.46977848101266, 63.682120253164555, 63.38132911392405, 63.62642405063291, 63.720569620253166, 63.66724683544304, 63.64161392405063, 63.585126582278484, 64.31360759493671, 63.78544303797468, 63.466613924050634, 63.83196202531646, 63.11977848101266, 64.23670886075949, 64.6496835443038, 63.743354430379746, 63.790506329113924, 63.74905063291139, 62.07753164556962, 62.4628164556962, 62.848101265822784, 62.68560126582278, 62.68971518987342, 62.8629746835443, 63.08164556962026, 63.5378164556962, 62.813607594936705, 62.93844936708861, 62.87072784810127, 62.71835443037975, 63.00632911392405, 62.968196202531644, 63.544778481012656, 62.82294303797468, 62.5876582278481, 62.364082278481014, 62.44620253164557, 62.30253164556962, 62.06930379746836, 61.970886075949366, 62.585759493670885, 62.60886075949367, 62.407753164556965, 62.804272151898736, 62.93512658227848, 63.177215189873415, 62.95348101265823, 62.65664556962025, 63.220886075949366, 63.04794303797468, 62.57547468354431, 62.7625, 62.76613924050633, 62.60870253164557, 63.13639240506329, 63.364715189873415, 63.425316455696205, 62.852373417721516, 62.77927215189873, 63.325632911392404, 63.06629746835443, 63.134018987341776, 62.96392405063291, 63.516772151898735, 63.348101265822784, 63.42705696202532, 63.42056962025316, 63.48591772151899, 62.64018987341772, 62.27278481012658, 62.44825949367089, 62.615981012658224, 63.819145569620254, 63.58338607594937, 62.73829113924051, 62.933386075949365, 62.90854430379747, 63.010917721518986, 62.9632911392405, 63.03544303797468, 61.96882911392405, 62.68908227848101, 62.99636075949367, 63.24873417721519, 61.89746835443038, 62.98069620253165, 61.70047468354431, 62.49113924050633, 63.10743670886076, 62.990981012658224, 62.864398734177215, 64.06803797468355, 63.38006329113924, 63.89636075949367, 63.60316455696203, 64.14287974683545, 63.37041139240506, 63.646993670886076, 62.82056962025317, 62.381645569620254, 62.66155063291139, 62.93449367088608, 62.455221518987344, 63.539556962025316, 63.79794303797468, 62.921993670886074, 62.38544303797468, 62.35617088607595, 62.15870253164557, 62.73117088607595, 62.71155063291139, 63.449050632911394, 61.60522151898734, 62.59794303797468, 62.45838607594937, 63.009335443037976, 63.09699367088608, 63.3253164556962, 63.445727848101264, 63.265506329113926, 62.60490506329114, 62.70743670886076, 62.7743670886076, 62.678164556962024, 62.731645569620255, 62.47246835443038, 62.31882911392405, 62.990664556962024, 62.35411392405063, 62.625, 63.39398734177215, 63.040506329113924, 62.22294303797468, 62.52136075949367, 62.91629746835443, 62.46914556962025, 62.170727848101265, 62.615664556962024, 63.58322784810127, 63.62800632911392, 63.19825949367089, 62.99873417721519, 62.05332278481013, 61.67863924050633, 62.086075949367086, 62.74636075949367, 62.141455696202534, 61.32357594936709, 61.300632911392405, 61.66661392405063, 62.32056962025317, 61.64889240506329, 62.28037974683544, 62.057120253164555, 62.3623417721519, 62.13449367088607, 62.77737341772152, 62.71882911392405, 62.65094936708861, 62.48275316455696, 62.875, 62.504113924050635, 62.77705696202532, 61.63180379746836, 61.826740506329116, 62.87658227848101, 62.52136075949367, 62.63971518987342, 62.37816455696203, 62.738449367088606, 62.242721518987345, 62.716930379746834, 61.54810126582279, 62.04715189873418, 62.14003164556962, 62.74762658227848, 63.05537974683544, 63.22974683544304, 62.45142405063291, 61.78686708860759, 62.70205696202532, 63.65, 61.95632911392405, 60.82025316455696, 62.18987341772152, 62.14446202531646, 62.284335443037975, 61.94525316455696, 61.92294303797468, 62.04256329113924, 62.47753164556962, 62.652848101265825, 61.95205696202532, 63.578955696202534, 63.38306962025317, 61.883227848101264, 63.29129746835443, 62.970253164556965, 61.92025316455696, 62.33860759493671, 61.42215189873418, 62.4375, 62.01123417721519, 62.12800632911392, 61.46867088607595, 61.90094936708861, 61.30949367088608, 61.34493670886076, 62.007278481012655, 61.66408227848101, 62.136550632911394, 61.86455696202532, 61.747151898734174, 61.30569620253164, 62.316930379746836, 61.59572784810127, 61.19177215189873, 60.95775316455696, 60.971835443037975, 60.80332278481013, 61.20474683544304, 61.424367088607596, 61.609493670886074, 61.386550632911394, 62.175632911392405, 61.54794303797468, 62.10712025316456, 61.39224683544304, 61.01914556962026, 60.4004746835443, 60.74240506329114, 61.30411392405063, 62.08306962025316, 61.64905063291139, 61.00917721518987, 61.70743670886076, 61.21344936708861, 60.51107594936709, 60.56344936708861, 59.41028481012658, 60.447784810126585, 60.18591772151899, 60.69129746835443, 60.2132911392405, 60.928481012658224, 59.68370253164557, 60.37120253164557, 59.96582278481013, 59.70632911392405, 59.24778481012658, 59.96898734177215, 59.95632911392405, 61.067879746835445, 60.05110759493671, 60.44541139240506, 60.379113924050635, 60.22373417721519, 59.17120253164557, 60.618354430379746, 59.89588607594937, 60.27990506329114, 61.44256329113924, 60.63575949367089, 61.30632911392405, 61.41155063291139, 61.17626582278481, 61.76756329113924, 60.80506329113924, 59.61028481012658, 60.74082278481013, 61.04778481012658, 60.13212025316456, 60.87895569620253, 60.16993670886076, 59.85094936708861, 59.19113924050633, 59.9371835443038, 61.08117088607595, 60.29382911392405, 60.36424050632911, 60.605379746835446, 60.23117088607595, 60.465348101265825, 60.1253164556962, 61.10490506329114, 60.14604430379747, 59.91376582278481, 60.85158227848101, 60.28860759493671, 60.1631329113924, 59.83117088607595, 59.348417721518985, 59.59636075949367, 60.15458860759494, 59.38180379746836, 60.034018987341774, 61.03212025316456, 61.37231012658228, 59.50996835443038, 60.15268987341772, 59.517721518987344, 59.96977848101266, 60.02389240506329, 60.396993670886076, 60.45110759493671, 60.38481012658228, 60.24113924050633, 60.74509493670886, 59.78607594936709, 60.83370253164557, 61.14889240506329, 61.175316455696205, 59.625158227848104, 60.19082278481012, 60.70158227848101, 61.11550632911393, 60.3001582278481, 60.12278481012658, 61.372943037974686, 60.04731012658228, 60.32104430379747, 59.3121835443038, 60.84272151898734, 59.932753164556964, 59.61392405063291, 59.15379746835443, 60.200632911392404, 59.176582278481014, 59.91677215189873, 59.69335443037975, 59.268037974683544, 60.19731012658228, 60.53481012658228, 60.05569620253164, 59.75363924050633, 59.90917721518987, 59.63512658227848, 60.10522151898734, 59.83496835443038, 60.638132911392404, 59.292879746835446, 59.90886075949367, 59.81882911392405, 60.434651898734174, 59.896993670886076, 59.360759493670884, 59.55933544303797, 58.82373417721519, 58.99477848101266, 59.45965189873418, 59.63370253164557, 59.29240506329114, 59.751107594936705, 59.81503164556962, 59.85363924050633, 59.76613924050633, 60.13117088607595, 60.498892405063295, 60.05569620253164, 59.524208860759494, 59.91012658227848, 60.82088607594937, 60.33813291139241, 60.517405063291136, 60.22199367088608, 59.10743670886076, 59.60680379746835, 59.59905063291139, 59.61060126582279, 58.781803797468356, 59.43512658227848, 60.38544303797468, 59.317879746835445, 60.101740506329115, 58.671677215189874, 57.4254746835443, 59.12357594936709, 58.526898734177216, 59.91439873417721, 59.63797468354431, 60.33465189873418, 59.788291139240506, 59.72262658227848, 59.24620253164557, 59.678481012658224, 59.25648734177215, 58.41028481012658, 59.526898734177216, 58.28085443037975, 59.210126582278484, 58.29430379746835, 59.14572784810127, 58.81186708860759, 59.386550632911394, 59.41661392405063, 59.15854430379747, 60.14651898734177, 59.193196202531645, 59.60348101265823, 59.62104430379747, 59.316613924050635, 59.85379746835443, 61.08844936708861, 60.09572784810127, 60.02705696202532, 60.84446202531645, 60.335126582278484, 59.80870253164557, 59.31060126582278, 58.62231012658228, 58.32373417721519, 58.70158227848101, 58.898259493670885, 58.34731012658228, 59.2623417721519, 58.8626582278481, 57.83987341772152, 59.51977848101266, 60.08496835443038, 59.24636075949367, 60.65791139240506, 59.20775316455696, 59.40490506329114, 59.47120253164557, 59.16724683544304, 59.63338607594937, 59.20047468354431, 58.135601265822785, 58.805537974683546, 59.81772151898734, 57.9879746835443, 59.62183544303797, 58.72041139240506, 58.43623417721519, 59.44604430379747, 58.83196202531646, 58.65949367088608, 59.51534810126582, 58.935759493670886, 60.3, 59.5873417721519, 59.15743670886076, 59.296677215189874, 59.40063291139241, 59.12689873417722, 58.71898734177215, 59.46851265822785, 60.19825949367089, 59.39905063291139, 59.36708860759494, 58.42674050632911, 58.96392405063291, 58.84762658227848, 58.75791139240506, 59.46613924050633, 58.675316455696205, 58.81186708860759, 58.908069620253166, 59.05110759493671, 59.14287974683544, 60.159018987341774, 59.20316455696202, 59.261867088607595, 59.62120253164557, 58.91851265822785, 58.72009493670886, 59.37246835443038, 58.999841772151896, 58.80996835443038, 59.199050632911394, 59.70268987341772, 58.915189873417724, 58.12816455696203, 58.562658227848104, 58.473101265822784, 58.55205696202532, 58.15617088607595, 58.164556962025316, 57.84477848101266, 57.8626582278481, 58.86946202531646, 58.96360759493671, 59.77895569620253, 59.627056962025314, 58.509335443037976, 57.94588607594937, 58.659651898734175, 59.143037974683544, 58.601424050632914, 57.93243670886076, 58.17357594936709, 58.72895569620253, 59.72294303797468, 59.85680379746835, 59.6507911392405, 59.94066455696203, 59.60617088607595, 59.277848101265825, 59.26012658227848, 59.935759493670886, 59.12753164556962, 59.051898734177215, 59.109493670886074, 59.444145569620254, 59.70047468354431, 59.95680379746835, 59.686392405063295, 60.063291139240505, 58.928164556962024, 58.875158227848104, 58.54778481012658, 59.61914556962025, 59.78370253164557, 58.773259493670885, 59.06344936708861, 59.28322784810127, 59.091613924050634, 59.448101265822785, 59.97784810126582, 59.17025316455696, 58.634335443037976, 57.84462025316456, 59.08148734177215, 58.165822784810125, 58.88607594936709, 58.80506329113924, 58.89003164556962, 59.17642405063291, 59.544462025316456, 58.86819620253164, 60.0996835443038, 58.88481012658228, 57.93844936708861, 59.22041139240506, 58.506012658227846, 58.98670886075949, 58.0998417721519, 58.288924050632914, 58.268037974683544, 57.46946202531645, 57.93433544303797, 58.169145569620255, 58.254430379746836, 59.00506329113924, 57.57753164556962, 56.98465189873418, 57.93623417721519, 58.7125, 58.77310126582279, 58.57041139240506, 59.28037974683544, 59.77056962025316, 58.79240506329114, 58.607911392405065, 57.87405063291139, 57.606962025316456, 58.09240506329114, 57.36882911392405, 58.49936708860759, 58.59936708860759, 57.937658227848104, 58.194778481012655, 57.73370253164557, 57.62231012658228, 58.56598101265823, 58.63512658227848, 57.93607594936709, 57.637183544303795, 58.96582278481013, 59.10601265822785, 58.35348101265823, 59.33465189873418, 58.035601265822784, 58.379430379746836, 57.719303797468356, 58.49145569620253, 57.917088607594934, 58.24050632911393, 58.33227848101266, 58.38575949367089, 59.06708860759494, 57.90300632911392, 58.88148734177215, 57.52072784810127, 57.62626582278481, 58.26851265822785, 56.8753164556962, 57.845253164556965, 57.513449367088604, 58.34177215189873, 58.80601265822785, 58.5376582278481, 58.23386075949367, 57.68291139240506, 58.24034810126582, 57.89683544303797, 58.28575949367089, 58.23465189873418, 57.72784810126582, 58.65490506329114, 58.21139240506329, 58.086708860759494, 57.800949367088606, 58.23607594936709, 58.67452531645569, 57.990981012658224, 57.30601265822785, 58.35158227848101, 58.13512658227848, 58.05933544303797, 57.55664556962025, 57.93892405063291, 58.170411392405065, 58.25617088607595, 57.6370253164557, 57.74351265822785, 58.585759493670885, 58.9875, 59.01503164556962, 58.14018987341772, 58.51012658227848, 57.955537974683544, 58.0371835443038, 58.239082278481014, 58.001740506329114, 58.48544303797468, 58.70965189873418, 57.591613924050634, 56.231962025316456, 58.00395569620253, 59.11582278481013, 57.924050632911396, 57.530696202531644, 57.748892405063295, 57.63085443037975, 57.639240506329116, 57.16724683544304, 57.78876582278481, 57.64003164556962, 57.64873417721519, 57.6995253164557, 58.10712025316456, 58.69256329113924, 57.056803797468355, 57.55363924050633, 57.72262658227848, 58.63939873417721, 58.91123417721519, 58.110759493670884, 58.790822784810125, 58.88417721518987, 58.69335443037975, 57.72041139240506, 57.714082278481015, 57.822784810126585, 58.63338607594937, 57.33322784810127, 57.06882911392405, 57.86550632911393, 57.69367088607595, 58.36819620253164, 58.47072784810127, 57.9007911392405, 58.11455696202532, 57.67373417721519, 56.64715189873418, 58.53971518987342, 58.6507911392405, 58.22120253164557, 57.304272151898736, 57.65981012658228, 58.24414556962025, 58.151582278481015, 56.61977848101266, 58.63132911392405, 58.35189873417721, 58.676898734177215, 59.42705696202532, 58.14003164556962, 58.89636075949367, 59.03006329113924, 58.84857594936709, 57.98085443037974, 58.69335443037975, 58.92879746835443, 59.053481012658224, 58.83037974683544, 59.25806962025317, 58.45316455696202, 57.890506329113926, 58.9378164556962, 58.53544303797468, 58.07705696202532, 57.92183544303798, 59.374208860759495, 58.38987341772152, 58.33196202531646, 57.299050632911396, 57.38085443037975, 58.5367088607595, 58.15854430379747, 58.33813291139241, 57.13085443037975, 57.32768987341772, 57.77088607594937, 57.6498417721519, 57.75221518987342, 58.08386075949367, 57.573101265822785, 57.69082278481012, 57.83354430379747, 58.06930379746836, 58.81012658227848, 58.80363924050633, 57.896677215189875, 58.95775316455696]</t>
+          <t>[0.4568452380952381, 0.31473214285714285, 0.45014880952380953, 0.4427083333333333, 0.5096726190476191, 0.4181547619047619, 0.4069940476190476, 0.4806547619047619, 0.33482142857142855, 0.4739583333333333, 0.45907738095238093, 0.45014880952380953, 0.42485119047619047, 0.5096726190476191, 0.45089285714285715, 0.3861607142857143, 0.4799107142857143, 0.36830357142857145, 0.43005952380952384, 0.42782738095238093, 0.4791666666666667, 0.5885416666666666, 0.5007440476190477, 0.4732142857142857, 0.4181547619047619, 0.3950892857142857, 0.4255952380952381, 0.53125, 0.4069940476190476, 0.421875, 0.5141369047619048, 0.4895833333333333, 0.4650297619047619, 0.4412202380952381, 0.40848214285714285, 0.32589285714285715, 0.4330357142857143, 0.484375, 0.45014880952380953, 0.41369047619047616, 0.39955357142857145, 0.41517857142857145, 0.36681547619047616, 0.47842261904761907, 0.4427083333333333, 0.43005952380952384, 0.39955357142857145, 0.44047619047619047, 0.4412202380952381, 0.38764880952380953, 0.5691964285714286, 0.3712797619047619, 0.421875, 0.5386904761904762, 0.4211309523809524, 0.47470238095238093, 0.46577380952380953, 0.4211309523809524, 0.45014880952380953, 0.3950892857142857, 0.44642857142857145, 0.5766369047619048, 0.4025297619047619, 0.44494047619047616, 0.41889880952380953, 0.49330357142857145, 0.5, 0.5014880952380952, 0.5401785714285714, 0.46726190476190477, 0.5773809523809523, 0.35714285714285715, 0.4538690476190476, 0.40848214285714285, 0.5096726190476191, 0.44642857142857145, 0.3430059523809524, 0.4114583333333333, 0.3898809523809524, 0.41592261904761907, 0.3630952380952381, 0.47693452380952384, 0.5044642857142857, 0.3802083333333333, 0.41592261904761907, 0.40476190476190477, 0.46875, 0.47619047619047616, 0.40401785714285715, 0.44642857142857145, 0.4739583333333333, 0.5141369047619048, 0.42857142857142855, 0.46726190476190477, 0.5111607142857143, 0.44568452380952384, 0.43452380952380953, 0.4635416666666667, 0.46875, 0.5245535714285714, 0.39360119047619047, 0.49330357142857145, 0.4568452380952381, 0.484375, 0.46875, 0.4806547619047619, 0.43601190476190477, 0.5014880952380952, 0.3913690476190476, 0.49107142857142855, 0.5647321428571429, 0.4107142857142857, 0.4888392857142857, 0.5290178571428571, 0.42410714285714285, 0.4322916666666667, 0.5, 0.5029761904761905, 0.4069940476190476, 0.4025297619047619, 0.4412202380952381, 0.4962797619047619, 0.4568452380952381, 0.3869047619047619, 0.37723214285714285, 0.43452380952380953, 0.4568452380952381, 0.42782738095238093, 0.38169642857142855, 0.5096726190476191, 0.4017857142857143, 0.49107142857142855, 0.3705357142857143, 0.38839285714285715, 0.37648809523809523, 0.4025297619047619, 0.5022321428571429, 0.35267857142857145, 0.515625, 0.33110119047619047, 0.5505952380952381, 0.5037202380952381, 0.390625, 0.4181547619047619, 0.4895833333333333, 0.4322916666666667, 0.4732142857142857, 0.5014880952380952, 0.48586309523809523, 0.40625, 0.4263392857142857, 0.44642857142857145, 0.4642857142857143, 0.46205357142857145, 0.44568452380952384, 0.421875, 0.4791666666666667, 0.45163690476190477, 0.4575892857142857, 0.45535714285714285, 0.37276785714285715, 0.49776785714285715, 0.4650297619047619, 0.44345238095238093, 0.3742559523809524, 0.4211309523809524, 0.4114583333333333, 0.49255952380952384, 0.40476190476190477, 0.43154761904761907, 0.35119047619047616, 0.3630952380952381, 0.4367559523809524, 0.44419642857142855, 0.46577380952380953, 0.46726190476190477, 0.4412202380952381, 0.4635416666666667, 0.38764880952380953, 0.4642857142857143, 0.46875, 0.5014880952380952, 0.48288690476190477, 0.43005952380952384, 0.47842261904761907, 0.4486607142857143, 0.3273809523809524, 0.45089285714285715, 0.4099702380952381, 0.46651785714285715, 0.34672619047619047, 0.39211309523809523, 0.5305059523809523, 0.4836309523809524, 0.38095238095238093, 0.38764880952380953, 0.30431547619047616, 0.4538690476190476, 0.453125, 0.4642857142857143, 0.453125, 0.5766369047619048, 0.49404761904761907, 0.39880952380952384, 0.43452380952380953, 0.5096726190476191, 0.3742559523809524, 0.40625, 0.48139880952380953, 0.4583333333333333, 0.40327380952380953, 0.4181547619047619, 0.4955357142857143, 0.41294642857142855, 0.4732142857142857, 0.5104166666666666, 0.453125, 0.42485119047619047, 0.38839285714285715, 0.4575892857142857, 0.37723214285714285, 0.53125, 0.3757440476190476, 0.421875, 0.43973214285714285, 0.49032738095238093, 0.49330357142857145, 0.5007440476190477, 0.4382440476190476, 0.43898809523809523, 0.4538690476190476, 0.47842261904761907, 0.38169642857142855, 0.4270833333333333, 0.43898809523809523, 0.4739583333333333, 0.4010416666666667, 0.34375, 0.39285714285714285, 0.37351190476190477, 0.47693452380952384, 0.49255952380952384, 0.4635416666666667, 0.4635416666666667, 0.45535714285714285, 0.4367559523809524, 0.4330357142857143, 0.40327380952380953, 0.40401785714285715, 0.4947916666666667, 0.39211309523809523, 0.44717261904761907, 0.49702380952380953, 0.4181547619047619, 0.5, 0.4069940476190476, 0.4069940476190476, 0.5126488095238095, 0.42857142857142855, 0.32663690476190477, 0.5476190476190477, 0.3444940476190476, 0.3697916666666667, 0.43005952380952384, 0.49181547619047616, 0.43154761904761907, 0.42931547619047616, 0.48288690476190477, 0.48214285714285715, 0.3794642857142857, 0.47023809523809523, 0.3601190476190476, 0.5126488095238095, 0.5126488095238095, 0.421875, 0.49181547619047616, 0.3757440476190476, 0.46279761904761907, 0.5260416666666666, 0.49255952380952384, 0.4486607142857143, 0.44642857142857145, 0.42782738095238093, 0.40773809523809523, 0.4181547619047619, 0.4680059523809524, 0.39211309523809523, 0.4486607142857143, 0.42485119047619047, 0.5491071428571429, 0.41294642857142855, 0.45014880952380953, 0.47172619047619047, 0.4419642857142857, 0.35639880952380953, 0.47470238095238093, 0.37648809523809523, 0.3950892857142857, 0.4724702380952381, 0.4107142857142857, 0.5044642857142857, 0.5349702380952381, 0.47023809523809523, 0.4888392857142857, 0.4635416666666667, 0.4680059523809524, 0.4680059523809524, 0.4419642857142857, 0.4427083333333333, 0.5252976190476191, 0.4583333333333333, 0.48288690476190477, 0.45535714285714285, 0.4851190476190476, 0.40848214285714285, 0.43154761904761907, 0.44642857142857145, 0.35267857142857145, 0.4680059523809524, 0.40773809523809523, 0.3556547619047619, 0.40848214285714285, 0.421875, 0.3013392857142857, 0.37351190476190477, 0.49330357142857145, 0.46130952380952384, 0.5290178571428571, 0.49181547619047616, 0.4724702380952381, 0.43154761904761907, 0.45163690476190477, 0.41294642857142855, 0.38913690476190477, 0.43154761904761907, 0.3898809523809524, 0.5252976190476191, 0.5119047619047619, 0.4888392857142857, 0.36160714285714285, 0.5535714285714286, 0.4322916666666667, 0.45907738095238093, 0.3638392857142857, 0.40773809523809523, 0.44568452380952384, 0.4025297619047619, 0.48660714285714285, 0.41517857142857145, 0.3943452380952381, 0.5409226190476191, 0.41369047619047616, 0.484375, 0.4419642857142857, 0.4114583333333333, 0.45610119047619047, 0.39806547619047616, 0.43080357142857145, 0.3802083333333333, 0.47619047619047616, 0.4337797619047619, 0.41369047619047616, 0.38467261904761907, 0.4263392857142857, 0.42857142857142855, 0.5580357142857143, 0.3913690476190476, 0.4025297619047619, 0.38095238095238093, 0.5528273809523809, 0.5900297619047619, 0.39657738095238093, 0.4055059523809524, 0.42038690476190477, 0.41294642857142855, 0.4174107142857143, 0.41220238095238093, 0.42931547619047616, 0.484375, 0.47842261904761907, 0.359375, 0.5, 0.42931547619047616, 0.42857142857142855, 0.41220238095238093, 0.4017857142857143, 0.35788690476190477, 0.38244047619047616, 0.43526785714285715, 0.3898809523809524, 0.4851190476190476, 0.5037202380952381, 0.4055059523809524, 0.4055059523809524, 0.4263392857142857, 0.41889880952380953, 0.4166666666666667, 0.40476190476190477, 0.375, 0.43973214285714285, 0.42038690476190477, 0.49255952380952384, 0.39806547619047616, 0.4427083333333333, 0.44642857142857145, 0.4538690476190476, 0.5840773809523809, 0.45535714285714285, 0.5877976190476191, 0.36235119047619047, 0.33630952380952384, 0.34970238095238093, 0.44717261904761907, 0.44568452380952384, 0.46577380952380953, 0.46875, 0.45163690476190477, 0.5208333333333334, 0.6130952380952381, 0.40476190476190477, 0.42485119047619047, 0.3950892857142857, 0.46726190476190477, 0.48586309523809523, 0.4642857142857143, 0.3385416666666667, 0.4724702380952381, 0.3854166666666667, 0.4107142857142857, 0.43452380952380953, 0.453125, 0.47767857142857145, 0.44345238095238093, 0.43898809523809523, 0.4412202380952381, 0.44419642857142855, 0.40848214285714285, 0.5349702380952381, 0.47023809523809523, 0.48139880952380953, 0.39285714285714285, 0.42931547619047616, 0.43898809523809523, 0.41369047619047616, 0.34375, 0.484375, 0.5238095238095238, 0.41220238095238093, 0.4888392857142857, 0.3898809523809524, 0.35193452380952384, 0.45163690476190477, 0.4107142857142857, 0.4888392857142857, 0.42485119047619047, 0.39880952380952384, 0.5461309523809523, 0.3854166666666667, 0.38913690476190477, 0.44345238095238093, 0.5833333333333334, 0.36160714285714285, 0.49851190476190477, 0.35119047619047616, 0.515625, 0.39211309523809523, 0.4114583333333333, 0.47470238095238093, 0.5066964285714286, 0.4382440476190476, 0.4583333333333333, 0.49776785714285715, 0.46056547619047616, 0.38169642857142855, 0.41220238095238093, 0.48586309523809523, 0.39285714285714285, 0.4538690476190476, 0.35639880952380953, 0.47767857142857145, 0.37276785714285715, 0.4992559523809524, 0.5372023809523809, 0.48288690476190477, 0.46577380952380953, 0.3802083333333333, 0.4337797619047619, 0.4583333333333333, 0.4836309523809524, 0.5349702380952381, 0.3802083333333333, 0.5364583333333334, 0.47619047619047616, 0.5290178571428571, 0.4025297619047619, 0.4806547619047619, 0.44419642857142855, 0.41294642857142855, 0.38095238095238093, 0.45163690476190477, 0.38095238095238093, 0.3697916666666667, 0.4330357142857143, 0.4114583333333333, 0.4174107142857143, 0.33630952380952384, 0.5565476190476191, 0.5096726190476191, 0.3802083333333333, 0.44345238095238093, 0.4367559523809524, 0.3854166666666667, 0.5409226190476191, 0.5089285714285714, 0.5104166666666666, 0.40401785714285715, 0.5364583333333334, 0.5052083333333334, 0.43898809523809523, 0.39732142857142855, 0.4724702380952381, 0.44717261904761907, 0.4680059523809524, 0.4583333333333333, 0.47023809523809523, 0.4836309523809524, 0.40625, 0.42410714285714285, 0.4226190476190476, 0.3861607142857143, 0.5520833333333334, 0.49330357142857145, 0.37797619047619047, 0.4739583333333333, 0.37202380952380953, 0.39285714285714285, 0.36755952380952384, 0.4107142857142857, 0.4166666666666667, 0.5022321428571429, 0.4538690476190476, 0.4568452380952381, 0.44717261904761907, 0.4694940476190476, 0.40476190476190477, 0.4069940476190476, 0.47544642857142855, 0.4851190476190476, 0.41964285714285715, 0.4680059523809524, 0.45907738095238093, 0.47693452380952384, 0.4836309523809524, 0.42038690476190477, 0.43154761904761907, 0.5565476190476191, 0.3958333333333333, 0.4836309523809524, 0.43898809523809523, 0.42857142857142855, 0.46577380952380953, 0.37202380952380953, 0.4270833333333333, 0.4642857142857143, 0.4427083333333333, 0.43005952380952384, 0.453125, 0.4010416666666667, 0.3556547619047619, 0.46651785714285715, 0.4322916666666667, 0.5029761904761905, 0.40327380952380953, 0.45535714285714285, 0.35714285714285715, 0.4017857142857143, 0.4166666666666667, 0.421875, 0.3638392857142857, 0.4680059523809524, 0.4263392857142857, 0.45461309523809523, 0.4494047619047619, 0.48214285714285715, 0.32663690476190477, 0.5089285714285714, 0.41964285714285715, 0.41964285714285715, 0.45535714285714285, 0.42485119047619047, 0.47470238095238093, 0.4479166666666667, 0.5059523809523809, 0.43005952380952384, 0.359375, 0.4211309523809524, 0.47098214285714285, 0.38392857142857145, 0.5148809523809523, 0.42038690476190477, 0.42857142857142855, 0.4538690476190476, 0.3556547619047619, 0.5446428571428571, 0.41369047619047616, 0.4322916666666667, 0.4479166666666667, 0.35788690476190477, 0.5528273809523809, 0.5238095238095238, 0.44568452380952384, 0.40625, 0.41220238095238093, 0.44047619047619047, 0.5208333333333334, 0.49404761904761907, 0.46651785714285715, 0.33407738095238093, 0.45982142857142855, 0.47693452380952384, 0.44047619047619047, 0.4806547619047619, 0.42485119047619047, 0.46875, 0.4017857142857143, 0.41220238095238093, 0.48139880952380953, 0.46279761904761907, 0.4427083333333333, 0.5044642857142857, 0.3943452380952381, 0.3541666666666667, 0.3869047619047619, 0.45535714285714285, 0.4382440476190476, 0.4486607142857143, 0.41592261904761907, 0.47842261904761907, 0.4025297619047619, 0.4107142857142857, 0.43080357142857145, 0.44568452380952384, 0.4799107142857143, 0.47842261904761907, 0.4367559523809524, 0.46130952380952384, 0.48214285714285715, 0.5163690476190477, 0.3638392857142857, 0.5453869047619048, 0.41294642857142855, 0.390625, 0.3913690476190476, 0.44419642857142855, 0.5245535714285714, 0.4494047619047619, 0.5074404761904762, 0.4263392857142857, 0.45014880952380953, 0.3757440476190476, 0.3913690476190476, 0.43973214285714285, 0.5543154761904762, 0.46726190476190477, 0.38318452380952384, 0.46875, 0.3392857142857143, 0.3869047619047619, 0.41220238095238093, 0.41889880952380953, 0.42485119047619047, 0.4836309523809524, 0.4583333333333333, 0.43452380952380953, 0.37648809523809523, 0.3802083333333333, 0.4575892857142857, 0.4322916666666667, 0.5133928571428571, 0.39955357142857145, 0.37351190476190477, 0.4575892857142857, 0.40922619047619047, 0.44642857142857145, 0.42485119047619047, 0.35788690476190477, 0.34672619047619047, 0.3869047619047619, 0.39285714285714285, 0.38318452380952384, 0.47023809523809523, 0.4650297619047619, 0.46577380952380953, 0.4337797619047619, 0.40922619047619047, 0.4099702380952381, 0.43005952380952384, 0.4479166666666667, 0.5372023809523809, 0.4211309523809524, 0.44419642857142855, 0.32589285714285715, 0.4680059523809524, 0.36160714285714285, 0.4739583333333333, 0.41592261904761907, 0.4114583333333333, 0.49330357142857145, 0.48660714285714285, 0.41964285714285715, 0.5119047619047619, 0.28273809523809523, 0.48139880952380953, 0.40327380952380953, 0.38467261904761907, 0.4263392857142857, 0.42931547619047616, 0.45163690476190477, 0.4099702380952381, 0.5349702380952381, 0.3630952380952381, 0.40625, 0.4724702380952381, 0.47544642857142855, 0.49404761904761907, 0.43601190476190477, 0.42038690476190477, 0.35342261904761907, 0.47098214285714285, 0.4888392857142857, 0.43526785714285715, 0.42336309523809523, 0.4955357142857143, 0.4322916666666667, 0.4836309523809524, 0.43452380952380953, 0.40773809523809523, 0.41220238095238093, 0.4427083333333333, 0.3802083333333333, 0.39657738095238093, 0.41443452380952384, 0.47023809523809523, 0.40773809523809523, 0.43601190476190477, 0.41294642857142855, 0.44419642857142855, 0.4367559523809524, 0.4211309523809524, 0.40625, 0.40848214285714285, 0.3861607142857143, 0.46130952380952384, 0.43452380952380953, 0.40029761904761907, 0.4174107142857143, 0.5543154761904762, 0.41294642857142855, 0.5022321428571429, 0.30580357142857145, 0.38318452380952384, 0.515625, 0.42038690476190477, 0.42038690476190477, 0.41369047619047616, 0.5900297619047619, 0.328125, 0.43973214285714285, 0.4069940476190476, 0.4992559523809524, 0.44345238095238093, 0.3712797619047619, 0.38913690476190477, 0.4888392857142857, 0.5885416666666666, 0.5148809523809523, 0.3586309523809524, 0.39955357142857145, 0.39211309523809523, 0.5, 0.5290178571428571, 0.42410714285714285, 0.5037202380952381, 0.41592261904761907, 0.47470238095238093, 0.4367559523809524, 0.4479166666666667, 0.4650297619047619, 0.49330357142857145, 0.3705357142857143, 0.42782738095238093, 0.46726190476190477, 0.44568452380952384, 0.43601190476190477, 0.49255952380952384, 0.42485119047619047, 0.39285714285714285, 0.4330357142857143, 0.47172619047619047, 0.41592261904761907, 0.39880952380952384, 0.41517857142857145, 0.45461309523809523, 0.36755952380952384, 0.45535714285714285, 0.49181547619047616, 0.45907738095238093, 0.4263392857142857, 0.49404761904761907, 0.3898809523809524, 0.45982142857142855, 0.41964285714285715, 0.4255952380952381, 0.43973214285714285, 0.39285714285714285, 0.31026785714285715, 0.36235119047619047, 0.46056547619047616, 0.48586309523809523, 0.5431547619047619, 0.4181547619047619, 0.35788690476190477, 0.5074404761904762, 0.5238095238095238, 0.4025297619047619, 0.43601190476190477, 0.4836309523809524, 0.39360119047619047, 0.4880952380952381, 0.3854166666666667, 0.49404761904761907, 0.44568452380952384, 0.4732142857142857, 0.41517857142857145, 0.41294642857142855, 0.5483630952380952, 0.42410714285714285, 0.42485119047619047, 0.41964285714285715, 0.41592261904761907, 0.3742559523809524, 0.34672619047619047, 0.49181547619047616, 0.4226190476190476, 0.4635416666666667, 0.3712797619047619, 0.4419642857142857, 0.4568452380952381, 0.3229166666666667, 0.4412202380952381, 0.46130952380952384, 0.43005952380952384, 0.4412202380952381, 0.4226190476190476, 0.38095238095238093, 0.48214285714285715, 0.3697916666666667, 0.4799107142857143, 0.44494047619047616, 0.36830357142857145, 0.46875, 0.5141369047619048, 0.46130952380952384, 0.4107142857142857, 0.39211309523809523, 0.47619047619047616, 0.42857142857142855, 0.43601190476190477, 0.5, 0.40401785714285715, 0.36830357142857145, 0.38244047619047616, 0.4412202380952381, 0.36086309523809523, 0.4330357142857143, 0.49330357142857145, 0.46577380952380953, 0.5238095238095238, 0.4375, 0.4791666666666667, 0.4114583333333333, 0.3697916666666667, 0.4412202380952381, 0.4836309523809524, 0.4181547619047619, 0.4025297619047619, 0.41592261904761907, 0.3913690476190476, 0.4114583333333333, 0.49404761904761907, 0.46279761904761907, 0.46577380952380953, 0.42782738095238093, 0.546875, 0.4486607142857143, 0.5104166666666666, 0.5044642857142857, 0.3645833333333333, 0.34672619047619047, 0.4806547619047619, 0.37202380952380953, 0.44494047619047616, 0.43080357142857145, 0.4888392857142857, 0.47098214285714285, 0.4732142857142857, 0.44642857142857145, 0.4486607142857143, 0.46056547619047616, 0.38913690476190477, 0.4791666666666667, 0.42857142857142855, 0.44568452380952384, 0.46130952380952384, 0.46056547619047616, 0.46726190476190477, 0.44568452380952384, 0.37648809523809523, 0.4055059523809524, 0.41592261904761907, 0.48735119047619047, 0.39657738095238093, 0.4724702380952381, 0.42857142857142855, 0.4888392857142857, 0.4166666666666667, 0.33705357142857145, 0.5119047619047619, 0.4270833333333333, 0.35267857142857145, 0.45014880952380953, 0.44345238095238093, 0.37797619047619047, 0.4479166666666667, 0.40625, 0.4650297619047619, 0.4494047619047619, 0.41369047619047616, 0.390625, 0.4226190476190476, 0.4583333333333333, 0.5290178571428571, 0.38467261904761907, 0.34523809523809523, 0.4486607142857143, 0.3013392857142857, 0.37202380952380953, 0.5208333333333334, 0.4650297619047619, 0.45014880952380953, 0.4270833333333333, 0.5014880952380952, 0.47842261904761907, 0.48214285714285715, 0.4962797619047619, 0.3645833333333333, 0.4330357142857143, 0.44345238095238093, 0.3712797619047619, 0.5260416666666666, 0.5022321428571429, 0.4367559523809524, 0.39732142857142855, 0.4412202380952381, 0.45461309523809523, 0.4270833333333333, 0.44568452380952384, 0.44345238095238093, 0.4955357142857143, 0.5133928571428571, 0.4486607142857143, 0.41294642857142855, 0.3943452380952381, 0.39955357142857145, 0.4650297619047619, 0.484375, 0.4427083333333333, 0.4017857142857143, 0.4479166666666667, 0.5186011904761905, 0.45163690476190477, 0.45461309523809523, 0.38169642857142855, 0.40401785714285715, 0.4255952380952381, 0.4382440476190476, 0.4583333333333333, 0.36607142857142855, 0.38244047619047616, 0.4523809523809524, 0.5290178571428571, 0.5044642857142857, 0.46205357142857145, 0.43005952380952384, 0.37276785714285715, 0.46577380952380953, 0.4382440476190476, 0.42782738095238093, 0.5133928571428571, 0.4114583333333333, 0.40327380952380953, 0.43601190476190477, 0.40922619047619047, 0.41369047619047616, 0.40922619047619047, 0.4263392857142857, 0.49032738095238093, 0.4181547619047619, 0.43080357142857145, 0.47619047619047616, 0.375, 0.32589285714285715, 0.5319940476190477, 0.3705357142857143, 0.3861607142857143, 0.3757440476190476, 0.4322916666666667, 0.43973214285714285, 0.4069940476190476, 0.4375, 0.42782738095238093, 0.43452380952380953, 0.41517857142857145, 0.39360119047619047, 0.49181547619047616, 0.47470238095238093, 0.4962797619047619, 0.4255952380952381, 0.4427083333333333, 0.42038690476190477, 0.41517857142857145, 0.3601190476190476, 0.6212797619047619, 0.39732142857142855, 0.3556547619047619, 0.46205357142857145, 0.29464285714285715, 0.4799107142857143, 0.3913690476190476, 0.4010416666666667, 0.45089285714285715, 0.4880952380952381, 0.39285714285714285, 0.43898809523809523, 0.43973214285714285, 0.3861607142857143, 0.38467261904761907, 0.42485119047619047, 0.5037202380952381, 0.5126488095238095, 0.42931547619047616, 0.44419642857142855, 0.5066964285714286, 0.4166666666666667, 0.42410714285714285, 0.5052083333333334, 0.49776785714285715, 0.5223214285714286, 0.46205357142857145, 0.5141369047619048, 0.39955357142857145, 0.3943452380952381, 0.49181547619047616, 0.49330357142857145, 0.4255952380952381, 0.41889880952380953, 0.5691964285714286, 0.44047619047619047, 0.40625, 0.43005952380952384, 0.4836309523809524, 0.4017857142857143, 0.3787202380952381, 0.4694940476190476, 0.37648809523809523, 0.32961309523809523, 0.37723214285714285, 0.5029761904761905, 0.3943452380952381, 0.43452380952380953, 0.43080357142857145, 0.4337797619047619, 0.42485119047619047, 0.49702380952380953, 0.48586309523809523, 0.4114583333333333, 0.5022321428571429, 0.515625, 0.38764880952380953, 0.5528273809523809, 0.375, 0.3898809523809524, 0.4479166666666667, 0.34151785714285715, 0.4583333333333333, 0.4226190476190476, 0.4337797619047619, 0.42857142857142855, 0.4412202380952381, 0.39657738095238093]</t>
         </is>
       </c>
     </row>
